--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_2_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_2_17.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>791170.1387145943</v>
+        <v>804631.3130149429</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>559512.0876269371</v>
+        <v>559512.0876269373</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10316995.04692716</v>
+        <v>10316995.04692717</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>235.7916894995706</v>
       </c>
       <c r="E2" t="n">
-        <v>130.1159852577693</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -719,7 +721,7 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -741,19 +743,19 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D3" t="n">
-        <v>137.45025063969</v>
+        <v>88.93351440885131</v>
       </c>
       <c r="E3" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
         <v>67.69846245683961</v>
@@ -798,10 +800,10 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W3" t="n">
-        <v>206.357681054615</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y3" t="n">
         <v>190.5961130869169</v>
@@ -838,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,7 +870,7 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
-        <v>128.9874563185103</v>
+        <v>69.53079011854132</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -899,16 +901,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>112.9235995407675</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>78.51974289950284</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>333.6094813630181</v>
@@ -959,7 +961,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
         <v>389.6064368699203</v>
@@ -984,16 +986,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F6" t="n">
-        <v>31.74890147707598</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,16 +1025,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>226.1116663261494</v>
+        <v>198.0168880161044</v>
       </c>
       <c r="W6" t="n">
         <v>238.9027100790231</v>
@@ -1060,22 +1062,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>50.77333445464513</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>138.3424411355423</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>133.4671371971241</v>
       </c>
       <c r="X8" t="n">
-        <v>265.1107116377232</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
         <v>389.6064368699203</v>
@@ -1209,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
         <v>137.45025063969</v>
@@ -1230,7 +1232,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>109.034022275473</v>
+        <v>167.2155107264657</v>
       </c>
       <c r="U9" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>226.1116663261494</v>
@@ -1294,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>50.77333445464513</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1309,7 +1311,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I10" t="n">
-        <v>50.77333445464504</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1415,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.73916953180444</v>
+        <v>65.73916953180446</v>
       </c>
       <c r="S11" t="n">
         <v>176.6529755334452</v>
@@ -1424,7 +1426,7 @@
         <v>220.4433659829895</v>
       </c>
       <c r="U11" t="n">
-        <v>153.6495833069277</v>
+        <v>252.305926837283</v>
       </c>
       <c r="V11" t="n">
         <v>333.6094813630181</v>
@@ -1436,7 +1438,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y11" t="n">
-        <v>389.6064368699203</v>
+        <v>290.9500933395645</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1466,7 @@
         <v>127.2368531361802</v>
       </c>
       <c r="H12" t="n">
-        <v>96.9647737324043</v>
+        <v>96.9647737324034</v>
       </c>
       <c r="I12" t="n">
         <v>60.66232013214974</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>46.49806561112343</v>
+        <v>46.49806561112344</v>
       </c>
       <c r="S12" t="n">
         <v>147.4755605575067</v>
@@ -1531,25 +1533,25 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>41.46412834684052</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.0592210434877</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.2556384040709</v>
       </c>
       <c r="I13" t="n">
-        <v>17.10206975953227</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>47.34362796447565</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,16 +1572,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>23.80540818138466</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>140.32293915197</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>208.5868485504649</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>230.1151168515673</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1604,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>390.1031041228389</v>
+        <v>208.2575004283588</v>
       </c>
       <c r="C14" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>411.5609956070679</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>51.46257968047435</v>
+        <v>325.5814052293737</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1652,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.73916953180444</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>220.4433659829895</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>252.305926837283</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="15">
@@ -1698,7 +1700,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
-        <v>127.2368531361802</v>
+        <v>127.2368531361795</v>
       </c>
       <c r="H15" t="n">
         <v>96.9647737324037</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>46.49806561112343</v>
+        <v>46.49806561112344</v>
       </c>
       <c r="S15" t="n">
         <v>147.4755605575067</v>
@@ -1743,7 +1745,7 @@
         <v>216.2963996197277</v>
       </c>
       <c r="V15" t="n">
-        <v>226.1116663261498</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W15" t="n">
         <v>238.9027100790231</v>
@@ -1780,13 +1782,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.2556384040709</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>137.6086505120454</v>
       </c>
       <c r="J16" t="n">
-        <v>47.34362796447565</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>23.80540818138466</v>
+        <v>23.80540818138467</v>
       </c>
       <c r="R16" t="n">
         <v>140.32293915197</v>
@@ -1816,10 +1818,10 @@
         <v>208.5868485504649</v>
       </c>
       <c r="T16" t="n">
-        <v>230.1151168515673</v>
+        <v>0.6965256594588436</v>
       </c>
       <c r="U16" t="n">
-        <v>17.10206975953227</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1841,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>291.4467605924835</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1889,16 +1891,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.73916953180444</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>176.6529755334452</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>220.4433659829895</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>252.305926837283</v>
+        <v>238.370673274646</v>
       </c>
       <c r="V17" t="n">
         <v>333.6094813630181</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>46.49806561112343</v>
+        <v>46.49806561112344</v>
       </c>
       <c r="S18" t="n">
         <v>147.4755605575067</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>99.67218115413833</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2053,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>124.8390672247517</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>284.3089918374816</v>
       </c>
       <c r="V19" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2087,19 +2089,19 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G20" t="n">
-        <v>256.8200604040608</v>
+        <v>411.5609956070679</v>
       </c>
       <c r="H20" t="n">
-        <v>325.5814052293737</v>
+        <v>192.9002122116455</v>
       </c>
       <c r="I20" t="n">
-        <v>156.363858050434</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,13 +2134,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>220.4433659829895</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W20" t="n">
         <v>358.909580840975</v>
@@ -2147,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2180,7 @@
         <v>96.9647737324037</v>
       </c>
       <c r="I21" t="n">
-        <v>60.66232013214974</v>
+        <v>60.66232013214973</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>46.49806561112343</v>
+        <v>46.49806561112366</v>
       </c>
       <c r="S21" t="n">
-        <v>147.4755605575067</v>
+        <v>147.4755605575066</v>
       </c>
       <c r="T21" t="n">
         <v>185.9745311655613</v>
@@ -2248,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>140.0790430442914</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.0592210434877</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>140.32293915197</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>125.8532215944585</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2333,7 +2335,7 @@
         <v>411.5609956070679</v>
       </c>
       <c r="H23" t="n">
-        <v>325.5814052293737</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2363,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.73916953180442</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>176.6529755334452</v>
       </c>
       <c r="T23" t="n">
-        <v>15.90844497924774</v>
+        <v>220.4433659829895</v>
       </c>
       <c r="U23" t="n">
-        <v>252.305926837283</v>
+        <v>43.76978720889876</v>
       </c>
       <c r="V23" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2417,7 @@
         <v>96.9647737324037</v>
       </c>
       <c r="I24" t="n">
-        <v>60.66232013214974</v>
+        <v>60.66232013214973</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>46.49806561112366</v>
+        <v>46.49806561112342</v>
       </c>
       <c r="S24" t="n">
-        <v>147.4755605575067</v>
+        <v>147.4755605575072</v>
       </c>
       <c r="T24" t="n">
         <v>185.9745311655613</v>
@@ -2476,19 +2478,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>66.9800895356564</v>
       </c>
       <c r="D25" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E25" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.0592210434877</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2518,10 +2520,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>23.80540818138466</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>23.42543447323257</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2539,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="26">
@@ -2555,25 +2557,25 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C26" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>16.64320355136288</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>411.5609956070679</v>
       </c>
       <c r="H26" t="n">
-        <v>196.4931573515434</v>
+        <v>325.5814052293737</v>
       </c>
       <c r="I26" t="n">
-        <v>156.363858050434</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2615,10 +2617,10 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2646,13 +2648,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G27" t="n">
-        <v>127.2368531361808</v>
+        <v>127.2368531361802</v>
       </c>
       <c r="H27" t="n">
         <v>96.9647737324037</v>
       </c>
       <c r="I27" t="n">
-        <v>60.66232013214974</v>
+        <v>60.66232013214973</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>46.49806561112343</v>
+        <v>46.49806561112342</v>
       </c>
       <c r="S27" t="n">
-        <v>147.4755605575067</v>
+        <v>147.4755605575066</v>
       </c>
       <c r="T27" t="n">
         <v>185.9745311655613</v>
@@ -2710,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>17.05220189759618</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.0592210434877</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2767,16 +2769,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>284.3089918374816</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>124.8390672247518</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2789,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>173.6953719720997</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C29" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D29" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>411.5609956070679</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>156.363858050434</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>176.6529755334452</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>220.4433659829895</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>252.305926837283</v>
       </c>
       <c r="V29" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>125.1236090744875</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2891,7 @@
         <v>96.9647737324037</v>
       </c>
       <c r="I30" t="n">
-        <v>60.66232013214974</v>
+        <v>60.66232013214973</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>46.49806561112366</v>
+        <v>46.49806561112342</v>
       </c>
       <c r="S30" t="n">
-        <v>147.4755605575067</v>
+        <v>147.4755605575066</v>
       </c>
       <c r="T30" t="n">
         <v>185.9745311655613</v>
@@ -2950,7 +2952,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.0592210434877</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.38185756680325</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>230.1151168515673</v>
+        <v>33.32739378144087</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>284.3089918374816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3029,19 +3031,19 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C32" t="n">
-        <v>169.7347650634258</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D32" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>411.5609956070679</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>325.5814052293737</v>
@@ -3077,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>176.6529755334452</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>220.4433659829895</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>227.5122469655775</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="33">
@@ -3117,7 +3119,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F33" t="n">
-        <v>133.346860069625</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G33" t="n">
         <v>127.2368531361802</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>164.1663657719743</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3238,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>124.8390672247518</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>284.3089918374816</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="35">
@@ -3269,19 +3271,19 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D35" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>216.0946768564697</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>325.5814052293737</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>176.6529755334452</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>220.4433659829895</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>238.3706732746464</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="36">
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>46.49806561112366</v>
+        <v>46.49806561112343</v>
       </c>
       <c r="S36" t="n">
         <v>147.4755605575067</v>
@@ -3430,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3442,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>137.6086505120454</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3466,19 +3468,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>23.80540818138466</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>140.32293915197</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>208.5868485504649</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>6.463239967235118</v>
       </c>
       <c r="U37" t="n">
-        <v>284.3089918374816</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3487,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>163.1522114022676</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>218.6539942666168</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E38" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>203.1813395899734</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>325.5814052293737</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>176.6529755334452</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>220.4433659829895</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3602,7 @@
         <v>96.9647737324037</v>
       </c>
       <c r="I39" t="n">
-        <v>60.66232013215034</v>
+        <v>60.66232013214974</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3715,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>284.3089918374816</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>124.8390672247517</v>
       </c>
       <c r="X40" t="n">
-        <v>97.82157839927679</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3749,13 +3751,13 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F41" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>411.5609956070679</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>325.5814052293737</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>164.4359535252633</v>
       </c>
       <c r="T41" t="n">
-        <v>127.2924755031519</v>
+        <v>220.4433659829895</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>252.305926837283</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W41" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="42">
@@ -3867,7 +3869,7 @@
         <v>46.49806561112343</v>
       </c>
       <c r="S42" t="n">
-        <v>147.4755605575067</v>
+        <v>147.4755605575072</v>
       </c>
       <c r="T42" t="n">
         <v>185.9745311655613</v>
@@ -3901,25 +3903,25 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>29.33778522158368</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>137.6086505120454</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>47.34362796447565</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3940,10 +3942,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>23.80540818138466</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>140.32293915197</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3952,10 +3954,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>245.0197117288786</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3986,10 +3988,10 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F44" t="n">
-        <v>202.0312720255543</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G44" t="n">
-        <v>411.5609956070679</v>
+        <v>203.5825888496908</v>
       </c>
       <c r="H44" t="n">
         <v>325.5814052293737</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>46.49806561112366</v>
+        <v>46.49806561112343</v>
       </c>
       <c r="S45" t="n">
         <v>147.4755605575067</v>
@@ -4189,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>284.3089918374816</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>283.2948374677749</v>
+        <v>218.5212637761711</v>
       </c>
       <c r="X46" t="n">
-        <v>99.6721811541385</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
   </sheetData>
@@ -4304,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1509.348194669897</v>
+        <v>662.131438505332</v>
       </c>
       <c r="C2" t="n">
-        <v>1509.348194669897</v>
+        <v>280.1976798381393</v>
       </c>
       <c r="D2" t="n">
-        <v>1509.348194669897</v>
+        <v>42.02425610119928</v>
       </c>
       <c r="E2" t="n">
-        <v>1377.917906530736</v>
+        <v>42.02425610119928</v>
       </c>
       <c r="F2" t="n">
-        <v>963.766715840906</v>
+        <v>42.02425610119928</v>
       </c>
       <c r="G2" t="n">
-        <v>547.662729295094</v>
+        <v>42.02425610119928</v>
       </c>
       <c r="H2" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119928</v>
       </c>
       <c r="I2" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119928</v>
       </c>
       <c r="J2" t="n">
-        <v>114.0228003740046</v>
+        <v>114.022800374005</v>
       </c>
       <c r="K2" t="n">
-        <v>354.1631724187873</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L2" t="n">
-        <v>702.0485455037335</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M2" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N2" t="n">
-        <v>1473.619070444537</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O2" t="n">
         <v>1778.623654917371</v>
@@ -4352,28 +4354,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R2" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S2" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="T2" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="U2" t="n">
-        <v>1846.327468773955</v>
+        <v>1755.689182269809</v>
       </c>
       <c r="V2" t="n">
-        <v>1509.348194669897</v>
+        <v>1418.70990816575</v>
       </c>
       <c r="W2" t="n">
-        <v>1509.348194669897</v>
+        <v>1056.174978023351</v>
       </c>
       <c r="X2" t="n">
-        <v>1509.348194669897</v>
+        <v>1056.174978023351</v>
       </c>
       <c r="Y2" t="n">
-        <v>1509.348194669897</v>
+        <v>1056.174978023351</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>692.6706591732259</v>
+        <v>461.879904359699</v>
       </c>
       <c r="C3" t="n">
-        <v>530.9669864141806</v>
+        <v>300.1762316006536</v>
       </c>
       <c r="D3" t="n">
-        <v>392.1283494043927</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="E3" t="n">
-        <v>245.1003394612639</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="F3" t="n">
-        <v>110.4065414111382</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="G3" t="n">
-        <v>110.4065414111382</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H3" t="n">
         <v>110.4065414111382</v>
@@ -4413,19 +4415,19 @@
         <v>331.768955194494</v>
       </c>
       <c r="L3" t="n">
-        <v>697.5908003646097</v>
+        <v>410.6179353667646</v>
       </c>
       <c r="M3" t="n">
-        <v>737.8796590913968</v>
+        <v>895.6512888769911</v>
       </c>
       <c r="N3" t="n">
-        <v>1249.145305214519</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O3" t="n">
-        <v>1641.34525599867</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P3" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q3" t="n">
         <v>2101.212805059961</v>
@@ -4446,13 +4448,13 @@
         <v>1253.053530380276</v>
       </c>
       <c r="W3" t="n">
-        <v>1044.611428304908</v>
+        <v>1011.737661613587</v>
       </c>
       <c r="X3" t="n">
-        <v>1044.611428304908</v>
+        <v>813.8206734913811</v>
       </c>
       <c r="Y3" t="n">
-        <v>852.0901019544867</v>
+        <v>621.2993471409599</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42.02425610119923</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="C4" t="n">
-        <v>42.02425610119923</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="D4" t="n">
-        <v>42.02425610119923</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="E4" t="n">
-        <v>42.02425610119923</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="F4" t="n">
-        <v>42.02425610119923</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="G4" t="n">
-        <v>42.02425610119923</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="H4" t="n">
-        <v>42.02425610119923</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="I4" t="n">
-        <v>42.02425610119923</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="J4" t="n">
         <v>42.02425610119923</v>
@@ -4516,22 +4518,22 @@
         <v>172.3146160188864</v>
       </c>
       <c r="T4" t="n">
-        <v>42.02425610119923</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="U4" t="n">
-        <v>42.02425610119923</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="V4" t="n">
-        <v>42.02425610119923</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="W4" t="n">
-        <v>42.02425610119923</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="X4" t="n">
-        <v>42.02425610119923</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="Y4" t="n">
-        <v>42.02425610119923</v>
+        <v>102.0814946870265</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>528.9124628343469</v>
+        <v>535.4883184066883</v>
       </c>
       <c r="C5" t="n">
-        <v>528.9124628343469</v>
+        <v>535.4883184066883</v>
       </c>
       <c r="D5" t="n">
-        <v>156.0884980615705</v>
+        <v>535.4883184066883</v>
       </c>
       <c r="E5" t="n">
-        <v>42.02425610119923</v>
+        <v>535.4883184066883</v>
       </c>
       <c r="F5" t="n">
-        <v>42.02425610119923</v>
+        <v>121.3371277168587</v>
       </c>
       <c r="G5" t="n">
         <v>42.02425610119923</v>
@@ -4568,16 +4570,16 @@
         <v>114.0228003740049</v>
       </c>
       <c r="K5" t="n">
-        <v>354.1631724187873</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L5" t="n">
-        <v>702.0485455037335</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M5" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N5" t="n">
-        <v>1473.619070444537</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O5" t="n">
         <v>1778.623654917371</v>
@@ -4589,28 +4591,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R5" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S5" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="T5" t="n">
-        <v>1876.853858790972</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="U5" t="n">
-        <v>1621.968522504967</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="V5" t="n">
-        <v>1284.989248400908</v>
+        <v>1673.595244451756</v>
       </c>
       <c r="W5" t="n">
-        <v>922.4543182585089</v>
+        <v>1311.060314309357</v>
       </c>
       <c r="X5" t="n">
-        <v>922.4543182585089</v>
+        <v>929.0301738308503</v>
       </c>
       <c r="Y5" t="n">
-        <v>528.9124628343469</v>
+        <v>535.4883184066883</v>
       </c>
     </row>
     <row r="6">
@@ -4620,43 +4622,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>521.6641732647531</v>
+        <v>921.3370166032433</v>
       </c>
       <c r="C6" t="n">
-        <v>359.9605005057078</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="D6" t="n">
-        <v>221.1218634959199</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="E6" t="n">
-        <v>74.09385355279113</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F6" t="n">
-        <v>42.02425610119923</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G6" t="n">
-        <v>42.02425610119923</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H6" t="n">
-        <v>42.02425610119923</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I6" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J6" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K6" t="n">
-        <v>271.5148086613879</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L6" t="n">
-        <v>637.3366538315036</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M6" t="n">
-        <v>1122.37000734173</v>
+        <v>1182.624153874836</v>
       </c>
       <c r="N6" t="n">
-        <v>1406.916935000113</v>
+        <v>1693.889799997958</v>
       </c>
       <c r="O6" t="n">
         <v>1799.116885784264</v>
@@ -4671,25 +4673,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S6" t="n">
-        <v>1948.413318072701</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T6" t="n">
-        <v>1759.728214238687</v>
+        <v>1912.527701225946</v>
       </c>
       <c r="U6" t="n">
-        <v>1541.233421836997</v>
+        <v>1912.527701225946</v>
       </c>
       <c r="V6" t="n">
-        <v>1312.837799285331</v>
+        <v>1712.510642623821</v>
       </c>
       <c r="W6" t="n">
-        <v>1071.521930518641</v>
+        <v>1471.194773857131</v>
       </c>
       <c r="X6" t="n">
-        <v>873.6049423964351</v>
+        <v>1273.277785734925</v>
       </c>
       <c r="Y6" t="n">
-        <v>681.083616046014</v>
+        <v>1080.756459384504</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>574.0835013471317</v>
+        <v>246.284539084348</v>
       </c>
       <c r="C7" t="n">
-        <v>574.0835013471317</v>
+        <v>246.284539084348</v>
       </c>
       <c r="D7" t="n">
-        <v>574.0835013471317</v>
+        <v>246.284539084348</v>
       </c>
       <c r="E7" t="n">
-        <v>522.7973049282982</v>
+        <v>246.284539084348</v>
       </c>
       <c r="F7" t="n">
-        <v>370.3166499540754</v>
+        <v>246.284539084348</v>
       </c>
       <c r="G7" t="n">
-        <v>201.3969013219254</v>
+        <v>246.284539084348</v>
       </c>
       <c r="H7" t="n">
-        <v>42.02425610119923</v>
+        <v>246.284539084348</v>
       </c>
       <c r="I7" t="n">
-        <v>42.02425610119923</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="J7" t="n">
         <v>42.02425610119923</v>
@@ -4744,31 +4746,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q7" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="R7" t="n">
-        <v>574.0835013471317</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="S7" t="n">
-        <v>574.0835013471317</v>
+        <v>246.284539084348</v>
       </c>
       <c r="T7" t="n">
-        <v>574.0835013471317</v>
+        <v>246.284539084348</v>
       </c>
       <c r="U7" t="n">
-        <v>574.0835013471317</v>
+        <v>246.284539084348</v>
       </c>
       <c r="V7" t="n">
-        <v>574.0835013471317</v>
+        <v>246.284539084348</v>
       </c>
       <c r="W7" t="n">
-        <v>574.0835013471317</v>
+        <v>246.284539084348</v>
       </c>
       <c r="X7" t="n">
-        <v>574.0835013471317</v>
+        <v>246.284539084348</v>
       </c>
       <c r="Y7" t="n">
-        <v>574.0835013471317</v>
+        <v>246.284539084348</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1439.882352021938</v>
+        <v>796.7819795411683</v>
       </c>
       <c r="C8" t="n">
-        <v>1439.882352021938</v>
+        <v>414.8482208739757</v>
       </c>
       <c r="D8" t="n">
-        <v>1439.882352021938</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E8" t="n">
-        <v>1045.096632128045</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F8" t="n">
-        <v>630.9454414382152</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G8" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H8" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I8" t="n">
-        <v>42.02425610119924</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J8" t="n">
         <v>114.0228003740049</v>
       </c>
       <c r="K8" t="n">
-        <v>354.1631724187878</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L8" t="n">
-        <v>702.048545503734</v>
+        <v>702.0485455037337</v>
       </c>
       <c r="M8" t="n">
         <v>1095.287711756822</v>
@@ -4817,37 +4819,37 @@
         <v>1473.619070444538</v>
       </c>
       <c r="O8" t="n">
-        <v>1778.623654917372</v>
+        <v>1778.623654917371</v>
       </c>
       <c r="P8" t="n">
-        <v>2006.780551373425</v>
+        <v>2006.780551373424</v>
       </c>
       <c r="Q8" t="n">
-        <v>2101.212805059962</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R8" t="n">
-        <v>2101.212805059962</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S8" t="n">
-        <v>2101.212805059962</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T8" t="n">
-        <v>2101.212805059962</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U8" t="n">
-        <v>2101.212805059962</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="V8" t="n">
-        <v>2101.212805059962</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="W8" t="n">
-        <v>2101.212805059962</v>
+        <v>1966.397514961856</v>
       </c>
       <c r="X8" t="n">
-        <v>1833.4242074461</v>
+        <v>1584.36737448335</v>
       </c>
       <c r="Y8" t="n">
-        <v>1439.882352021938</v>
+        <v>1190.825519059187</v>
       </c>
     </row>
     <row r="9">
@@ -4857,31 +4859,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>759.6333438441981</v>
+        <v>852.9547312933042</v>
       </c>
       <c r="C9" t="n">
-        <v>759.6333438441981</v>
+        <v>691.251058534259</v>
       </c>
       <c r="D9" t="n">
-        <v>620.7947068344101</v>
+        <v>552.412421524471</v>
       </c>
       <c r="E9" t="n">
-        <v>473.7666968912813</v>
+        <v>405.3844115813423</v>
       </c>
       <c r="F9" t="n">
-        <v>339.0728988411556</v>
+        <v>270.6906135312166</v>
       </c>
       <c r="G9" t="n">
-        <v>210.3443988644402</v>
+        <v>141.9621135545012</v>
       </c>
       <c r="H9" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I9" t="n">
-        <v>42.02425610119924</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J9" t="n">
-        <v>42.02425610119924</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K9" t="n">
         <v>271.5148086613879</v>
@@ -4893,40 +4895,40 @@
         <v>1122.37000734173</v>
       </c>
       <c r="N9" t="n">
-        <v>1406.916935000114</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O9" t="n">
         <v>1799.116885784264</v>
       </c>
       <c r="P9" t="n">
-        <v>2101.212805059962</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q9" t="n">
-        <v>2101.212805059962</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R9" t="n">
-        <v>2101.212805059962</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S9" t="n">
-        <v>1948.413318072702</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="T9" t="n">
-        <v>1838.277942036871</v>
+        <v>1872.523979865548</v>
       </c>
       <c r="U9" t="n">
-        <v>1619.783149635181</v>
+        <v>1872.523979865548</v>
       </c>
       <c r="V9" t="n">
-        <v>1391.387527083515</v>
+        <v>1644.128357313882</v>
       </c>
       <c r="W9" t="n">
-        <v>1150.071658316825</v>
+        <v>1402.812488547192</v>
       </c>
       <c r="X9" t="n">
-        <v>952.1546701946193</v>
+        <v>1204.895500424986</v>
       </c>
       <c r="Y9" t="n">
-        <v>759.6333438441981</v>
+        <v>1012.374174074565</v>
       </c>
     </row>
     <row r="10">
@@ -4942,25 +4944,25 @@
         <v>574.0835013471317</v>
       </c>
       <c r="D10" t="n">
-        <v>574.0835013471317</v>
+        <v>522.7973049282982</v>
       </c>
       <c r="E10" t="n">
-        <v>574.0835013471317</v>
+        <v>522.7973049282982</v>
       </c>
       <c r="F10" t="n">
-        <v>421.6028463729088</v>
+        <v>370.3166499540754</v>
       </c>
       <c r="G10" t="n">
-        <v>252.6830977407588</v>
+        <v>201.3969013219254</v>
       </c>
       <c r="H10" t="n">
-        <v>93.31045252003261</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I10" t="n">
-        <v>42.02425610119924</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J10" t="n">
-        <v>42.02425610119924</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K10" t="n">
         <v>75.62844384584264</v>
@@ -5015,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="C11" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="D11" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="E11" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="F11" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="G11" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="H11" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="I11" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="J11" t="n">
-        <v>154.9459054532636</v>
+        <v>154.9459054532635</v>
       </c>
       <c r="K11" t="n">
-        <v>443.1860302481634</v>
+        <v>443.1860302481633</v>
       </c>
       <c r="L11" t="n">
-        <v>850.7433998907118</v>
+        <v>850.7433998907115</v>
       </c>
       <c r="M11" t="n">
         <v>1310.379159876956</v>
@@ -5057,13 +5059,13 @@
         <v>2124.896977382889</v>
       </c>
       <c r="P11" t="n">
-        <v>2407.429665198535</v>
+        <v>2407.429665198534</v>
       </c>
       <c r="Q11" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="R11" t="n">
-        <v>2476.292672113454</v>
+        <v>2476.292672113453</v>
       </c>
       <c r="S11" t="n">
         <v>2297.855323089771</v>
@@ -5072,16 +5074,16 @@
         <v>2075.185256440287</v>
       </c>
       <c r="U11" t="n">
-        <v>1919.98365714036</v>
+        <v>1820.330784887475</v>
       </c>
       <c r="V11" t="n">
-        <v>1583.004383036301</v>
+        <v>1483.351510783417</v>
       </c>
       <c r="W11" t="n">
-        <v>1220.469452893902</v>
+        <v>1120.816580641018</v>
       </c>
       <c r="X11" t="n">
-        <v>838.4393124153958</v>
+        <v>738.7864401625111</v>
       </c>
       <c r="Y11" t="n">
         <v>444.8974569912338</v>
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>920.8593958421045</v>
+        <v>920.8593958421036</v>
       </c>
       <c r="C12" t="n">
-        <v>759.1557230830592</v>
+        <v>759.1557230830583</v>
       </c>
       <c r="D12" t="n">
-        <v>620.3170860732713</v>
+        <v>620.3170860732704</v>
       </c>
       <c r="E12" t="n">
-        <v>473.2890761301425</v>
+        <v>473.2890761301416</v>
       </c>
       <c r="F12" t="n">
-        <v>338.5952780800169</v>
+        <v>338.595278080016</v>
       </c>
       <c r="G12" t="n">
-        <v>210.0732042050874</v>
+        <v>210.0732042050865</v>
       </c>
       <c r="H12" t="n">
         <v>112.1289883137699</v>
       </c>
       <c r="I12" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="J12" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="K12" t="n">
-        <v>313.014426141483</v>
+        <v>68.10001809715419</v>
       </c>
       <c r="L12" t="n">
-        <v>722.7650590219088</v>
+        <v>477.8506509775799</v>
       </c>
       <c r="M12" t="n">
-        <v>1259.061235803009</v>
+        <v>1014.14682775868</v>
       </c>
       <c r="N12" t="n">
-        <v>1822.946479591694</v>
+        <v>1578.032071547365</v>
       </c>
       <c r="O12" t="n">
-        <v>2263.283082167001</v>
+        <v>2018.368674122672</v>
       </c>
       <c r="P12" t="n">
-        <v>2542.695873660731</v>
+        <v>2359.098500262958</v>
       </c>
       <c r="Q12" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="R12" t="n">
-        <v>2495.728130619192</v>
+        <v>2495.728130619191</v>
       </c>
       <c r="S12" t="n">
-        <v>2346.762917934842</v>
+        <v>2346.762917934841</v>
       </c>
       <c r="T12" t="n">
-        <v>2158.909856151447</v>
+        <v>2158.909856151446</v>
       </c>
       <c r="U12" t="n">
-        <v>1940.428644414348</v>
+        <v>1940.428644414347</v>
       </c>
       <c r="V12" t="n">
-        <v>1712.033021862682</v>
+        <v>1712.033021862681</v>
       </c>
       <c r="W12" t="n">
-        <v>1470.717153095992</v>
+        <v>1470.717153095991</v>
       </c>
       <c r="X12" t="n">
         <v>1272.800164973786</v>
       </c>
       <c r="Y12" t="n">
-        <v>1080.278838623365</v>
+        <v>1080.278838623364</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>115.9505818408994</v>
+        <v>724.8700896544215</v>
       </c>
       <c r="C13" t="n">
-        <v>115.9505818408994</v>
+        <v>724.8700896544215</v>
       </c>
       <c r="D13" t="n">
-        <v>115.9505818408994</v>
+        <v>571.7981964821842</v>
       </c>
       <c r="E13" t="n">
-        <v>115.9505818408994</v>
+        <v>529.9152385560826</v>
       </c>
       <c r="F13" t="n">
-        <v>115.9505818408994</v>
+        <v>377.4345835818597</v>
       </c>
       <c r="G13" t="n">
-        <v>115.9505818408994</v>
+        <v>208.6878956591448</v>
       </c>
       <c r="H13" t="n">
-        <v>115.9505818408994</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="I13" t="n">
-        <v>98.6757639019779</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="J13" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="K13" t="n">
         <v>104.1644935890949</v>
       </c>
       <c r="L13" t="n">
-        <v>229.9889654324849</v>
+        <v>229.9889654324848</v>
       </c>
       <c r="M13" t="n">
         <v>374.5706761520456</v>
       </c>
       <c r="N13" t="n">
-        <v>518.9490144159677</v>
+        <v>518.9490144159676</v>
       </c>
       <c r="O13" t="n">
-        <v>641.3872247924078</v>
+        <v>641.3872247924077</v>
       </c>
       <c r="P13" t="n">
-        <v>724.8700896544216</v>
+        <v>724.8700896544215</v>
       </c>
       <c r="Q13" t="n">
-        <v>700.8242228045381</v>
+        <v>724.8700896544215</v>
       </c>
       <c r="R13" t="n">
-        <v>559.0838802267906</v>
+        <v>724.8700896544215</v>
       </c>
       <c r="S13" t="n">
-        <v>348.3900938121795</v>
+        <v>724.8700896544215</v>
       </c>
       <c r="T13" t="n">
-        <v>115.9505818408994</v>
+        <v>724.8700896544215</v>
       </c>
       <c r="U13" t="n">
-        <v>115.9505818408994</v>
+        <v>724.8700896544215</v>
       </c>
       <c r="V13" t="n">
-        <v>115.9505818408994</v>
+        <v>724.8700896544215</v>
       </c>
       <c r="W13" t="n">
-        <v>115.9505818408994</v>
+        <v>724.8700896544215</v>
       </c>
       <c r="X13" t="n">
-        <v>115.9505818408994</v>
+        <v>724.8700896544215</v>
       </c>
       <c r="Y13" t="n">
-        <v>115.9505818408994</v>
+        <v>724.8700896544215</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2082.249132595434</v>
+        <v>379.7240237655113</v>
       </c>
       <c r="C14" t="n">
-        <v>1700.315373928242</v>
+        <v>379.7240237655113</v>
       </c>
       <c r="D14" t="n">
-        <v>1327.491409155465</v>
+        <v>379.7240237655113</v>
       </c>
       <c r="E14" t="n">
-        <v>932.7056892615719</v>
+        <v>379.7240237655113</v>
       </c>
       <c r="F14" t="n">
-        <v>518.5544985717422</v>
+        <v>379.7240237655113</v>
       </c>
       <c r="G14" t="n">
-        <v>102.8363211908655</v>
+        <v>379.7240237655113</v>
       </c>
       <c r="H14" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321459</v>
       </c>
       <c r="I14" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321459</v>
       </c>
       <c r="J14" t="n">
-        <v>154.9459054532636</v>
+        <v>154.9459054532635</v>
       </c>
       <c r="K14" t="n">
-        <v>443.1860302481634</v>
+        <v>443.1860302481633</v>
       </c>
       <c r="L14" t="n">
-        <v>850.7433998907118</v>
+        <v>850.7433998907115</v>
       </c>
       <c r="M14" t="n">
         <v>1310.379159876956</v>
@@ -5294,34 +5296,34 @@
         <v>2124.896977382889</v>
       </c>
       <c r="P14" t="n">
-        <v>2407.429665198535</v>
+        <v>2407.429665198534</v>
       </c>
       <c r="Q14" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="R14" t="n">
-        <v>2476.292672113454</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="S14" t="n">
-        <v>2476.292672113454</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="T14" t="n">
-        <v>2476.292672113454</v>
+        <v>2320.025807011245</v>
       </c>
       <c r="U14" t="n">
-        <v>2476.292672113454</v>
+        <v>2065.171335458434</v>
       </c>
       <c r="V14" t="n">
-        <v>2476.292672113454</v>
+        <v>1728.192061354376</v>
       </c>
       <c r="W14" t="n">
-        <v>2476.292672113454</v>
+        <v>1365.657131211977</v>
       </c>
       <c r="X14" t="n">
-        <v>2476.292672113454</v>
+        <v>983.6269907334702</v>
       </c>
       <c r="Y14" t="n">
-        <v>2476.292672113454</v>
+        <v>590.0851353093082</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>920.8593958421039</v>
+        <v>920.8593958421031</v>
       </c>
       <c r="C15" t="n">
-        <v>759.1557230830587</v>
+        <v>759.1557230830579</v>
       </c>
       <c r="D15" t="n">
-        <v>620.3170860732707</v>
+        <v>620.3170860732699</v>
       </c>
       <c r="E15" t="n">
-        <v>473.2890761301419</v>
+        <v>473.2890761301412</v>
       </c>
       <c r="F15" t="n">
-        <v>338.5952780800163</v>
+        <v>338.5952780800155</v>
       </c>
       <c r="G15" t="n">
         <v>210.0732042050868</v>
@@ -5352,55 +5354,55 @@
         <v>112.1289883137699</v>
       </c>
       <c r="I15" t="n">
-        <v>50.85391747321462</v>
+        <v>50.8539174732146</v>
       </c>
       <c r="J15" t="n">
-        <v>130.2226992162549</v>
+        <v>50.8539174732146</v>
       </c>
       <c r="K15" t="n">
-        <v>392.3832078845233</v>
+        <v>251.6973914949257</v>
       </c>
       <c r="L15" t="n">
-        <v>802.1338407649491</v>
+        <v>661.4480243753515</v>
       </c>
       <c r="M15" t="n">
-        <v>1338.430017546049</v>
+        <v>1197.744201156452</v>
       </c>
       <c r="N15" t="n">
-        <v>1578.032071547365</v>
+        <v>1761.629444945137</v>
       </c>
       <c r="O15" t="n">
-        <v>2018.368674122672</v>
+        <v>2201.966047520444</v>
       </c>
       <c r="P15" t="n">
-        <v>2359.098500262959</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="Q15" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="R15" t="n">
-        <v>2495.728130619192</v>
+        <v>2495.728130619191</v>
       </c>
       <c r="S15" t="n">
-        <v>2346.762917934842</v>
+        <v>2346.762917934841</v>
       </c>
       <c r="T15" t="n">
-        <v>2158.909856151447</v>
+        <v>2158.909856151445</v>
       </c>
       <c r="U15" t="n">
-        <v>1940.428644414348</v>
+        <v>1940.428644414347</v>
       </c>
       <c r="V15" t="n">
-        <v>1712.033021862681</v>
+        <v>1712.03302186268</v>
       </c>
       <c r="W15" t="n">
-        <v>1470.717153095991</v>
+        <v>1470.71715309599</v>
       </c>
       <c r="X15" t="n">
-        <v>1272.800164973786</v>
+        <v>1272.800164973785</v>
       </c>
       <c r="Y15" t="n">
-        <v>1080.278838623365</v>
+        <v>1080.278838623364</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>98.6757639019779</v>
+        <v>347.6865325399988</v>
       </c>
       <c r="C16" t="n">
-        <v>98.6757639019779</v>
+        <v>347.6865325399988</v>
       </c>
       <c r="D16" t="n">
-        <v>98.6757639019779</v>
+        <v>347.6865325399988</v>
       </c>
       <c r="E16" t="n">
-        <v>98.6757639019779</v>
+        <v>347.6865325399988</v>
       </c>
       <c r="F16" t="n">
-        <v>98.6757639019779</v>
+        <v>347.6865325399988</v>
       </c>
       <c r="G16" t="n">
-        <v>98.6757639019779</v>
+        <v>347.6865325399988</v>
       </c>
       <c r="H16" t="n">
-        <v>98.6757639019779</v>
+        <v>189.8525543540686</v>
       </c>
       <c r="I16" t="n">
-        <v>98.6757639019779</v>
+        <v>50.8539174732146</v>
       </c>
       <c r="J16" t="n">
-        <v>50.85391747321462</v>
+        <v>50.8539174732146</v>
       </c>
       <c r="K16" t="n">
-        <v>104.1644935890949</v>
+        <v>104.1644935890948</v>
       </c>
       <c r="L16" t="n">
-        <v>229.9889654324849</v>
+        <v>229.9889654324848</v>
       </c>
       <c r="M16" t="n">
         <v>374.5706761520456</v>
       </c>
       <c r="N16" t="n">
-        <v>518.9490144159677</v>
+        <v>518.9490144159676</v>
       </c>
       <c r="O16" t="n">
-        <v>641.3872247924078</v>
+        <v>641.3872247924077</v>
       </c>
       <c r="P16" t="n">
-        <v>724.8700896544216</v>
+        <v>724.8700896544215</v>
       </c>
       <c r="Q16" t="n">
-        <v>700.8242228045381</v>
+        <v>700.824222804538</v>
       </c>
       <c r="R16" t="n">
-        <v>559.0838802267906</v>
+        <v>559.0838802267905</v>
       </c>
       <c r="S16" t="n">
-        <v>348.3900938121795</v>
+        <v>348.3900938121794</v>
       </c>
       <c r="T16" t="n">
-        <v>115.9505818408994</v>
+        <v>347.6865325399988</v>
       </c>
       <c r="U16" t="n">
-        <v>98.6757639019779</v>
+        <v>347.6865325399988</v>
       </c>
       <c r="V16" t="n">
-        <v>98.6757639019779</v>
+        <v>347.6865325399988</v>
       </c>
       <c r="W16" t="n">
-        <v>98.6757639019779</v>
+        <v>347.6865325399988</v>
       </c>
       <c r="X16" t="n">
-        <v>98.6757639019779</v>
+        <v>347.6865325399988</v>
       </c>
       <c r="Y16" t="n">
-        <v>98.6757639019779</v>
+        <v>347.6865325399988</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>50.85391747321462</v>
+        <v>432.7876761404073</v>
       </c>
       <c r="C17" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="D17" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="E17" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="F17" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="G17" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="H17" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="I17" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="J17" t="n">
-        <v>154.9459054532635</v>
+        <v>154.9459054532633</v>
       </c>
       <c r="K17" t="n">
-        <v>443.1860302481634</v>
+        <v>443.186030248163</v>
       </c>
       <c r="L17" t="n">
-        <v>850.7433998907119</v>
+        <v>850.7433998907115</v>
       </c>
       <c r="M17" t="n">
         <v>1310.379159876956</v>
@@ -5534,31 +5536,31 @@
         <v>2407.429665198535</v>
       </c>
       <c r="Q17" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="R17" t="n">
-        <v>2476.292672113454</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="S17" t="n">
-        <v>2297.855323089771</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="T17" t="n">
-        <v>2075.185256440287</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="U17" t="n">
-        <v>1820.330784887476</v>
+        <v>2301.917415807553</v>
       </c>
       <c r="V17" t="n">
-        <v>1483.351510783417</v>
+        <v>1964.938141703494</v>
       </c>
       <c r="W17" t="n">
-        <v>1120.816580641018</v>
+        <v>1602.403211561095</v>
       </c>
       <c r="X17" t="n">
-        <v>738.7864401625116</v>
+        <v>1220.373071082588</v>
       </c>
       <c r="Y17" t="n">
-        <v>345.2445847383495</v>
+        <v>826.8312156584263</v>
       </c>
     </row>
     <row r="18">
@@ -5568,52 +5570,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>920.8593958421037</v>
+        <v>920.859395842104</v>
       </c>
       <c r="C18" t="n">
-        <v>759.1557230830585</v>
+        <v>759.1557230830588</v>
       </c>
       <c r="D18" t="n">
-        <v>620.3170860732707</v>
+        <v>620.3170860732708</v>
       </c>
       <c r="E18" t="n">
-        <v>473.2890761301419</v>
+        <v>473.2890761301421</v>
       </c>
       <c r="F18" t="n">
-        <v>338.5952780800162</v>
+        <v>338.5952780800164</v>
       </c>
       <c r="G18" t="n">
-        <v>210.0732042050869</v>
+        <v>210.0732042050868</v>
       </c>
       <c r="H18" t="n">
         <v>112.1289883137699</v>
       </c>
       <c r="I18" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="J18" t="n">
-        <v>130.2226992162549</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="K18" t="n">
-        <v>392.3832078845233</v>
+        <v>251.6973914949262</v>
       </c>
       <c r="L18" t="n">
-        <v>802.1338407649491</v>
+        <v>661.4480243753519</v>
       </c>
       <c r="M18" t="n">
-        <v>1338.430017546049</v>
+        <v>1197.744201156452</v>
       </c>
       <c r="N18" t="n">
-        <v>1902.315261334734</v>
+        <v>1761.629444945137</v>
       </c>
       <c r="O18" t="n">
-        <v>2018.368674122672</v>
+        <v>2201.966047520444</v>
       </c>
       <c r="P18" t="n">
-        <v>2359.098500262959</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="Q18" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="R18" t="n">
         <v>2495.728130619192</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="C19" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="D19" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="E19" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="F19" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="G19" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="H19" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="I19" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="J19" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="K19" t="n">
         <v>104.1644935890949</v>
       </c>
       <c r="L19" t="n">
-        <v>229.9889654324849</v>
+        <v>229.9889654324848</v>
       </c>
       <c r="M19" t="n">
         <v>374.5706761520456</v>
       </c>
       <c r="N19" t="n">
-        <v>518.9490144159677</v>
+        <v>518.9490144159676</v>
       </c>
       <c r="O19" t="n">
-        <v>641.3872247924078</v>
+        <v>641.3872247924077</v>
       </c>
       <c r="P19" t="n">
-        <v>724.8700896544216</v>
+        <v>724.8700896544215</v>
       </c>
       <c r="Q19" t="n">
-        <v>724.8700896544216</v>
+        <v>724.8700896544215</v>
       </c>
       <c r="R19" t="n">
-        <v>724.8700896544216</v>
+        <v>724.8700896544215</v>
       </c>
       <c r="S19" t="n">
-        <v>724.8700896544216</v>
+        <v>724.8700896544215</v>
       </c>
       <c r="T19" t="n">
-        <v>598.7700217506319</v>
+        <v>724.8700896544215</v>
       </c>
       <c r="U19" t="n">
-        <v>311.589221914792</v>
+        <v>437.6892898185815</v>
       </c>
       <c r="V19" t="n">
-        <v>50.85391747321462</v>
+        <v>437.6892898185815</v>
       </c>
       <c r="W19" t="n">
-        <v>50.85391747321462</v>
+        <v>151.5328883359806</v>
       </c>
       <c r="X19" t="n">
-        <v>50.85391747321462</v>
+        <v>151.5328883359806</v>
       </c>
       <c r="Y19" t="n">
-        <v>50.85391747321462</v>
+        <v>151.5328883359806</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1169.905481926666</v>
+        <v>1843.181669414273</v>
       </c>
       <c r="C20" t="n">
-        <v>1169.905481926666</v>
+        <v>1843.181669414273</v>
       </c>
       <c r="D20" t="n">
-        <v>797.08151715389</v>
+        <v>1470.357704641497</v>
       </c>
       <c r="E20" t="n">
-        <v>797.08151715389</v>
+        <v>1075.571984747603</v>
       </c>
       <c r="F20" t="n">
-        <v>797.08151715389</v>
+        <v>661.4207940577737</v>
       </c>
       <c r="G20" t="n">
-        <v>537.6673147255457</v>
+        <v>245.702616676897</v>
       </c>
       <c r="H20" t="n">
-        <v>208.797208433249</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I20" t="n">
         <v>50.85391747321462</v>
       </c>
       <c r="J20" t="n">
-        <v>154.9459054532635</v>
+        <v>154.9459054532636</v>
       </c>
       <c r="K20" t="n">
         <v>443.1860302481634</v>
       </c>
       <c r="L20" t="n">
-        <v>850.7433998907119</v>
+        <v>850.743399890712</v>
       </c>
       <c r="M20" t="n">
         <v>1310.379159876956</v>
       </c>
       <c r="N20" t="n">
-        <v>1756.181478599932</v>
+        <v>1756.181478599933</v>
       </c>
       <c r="O20" t="n">
         <v>2124.896977382889</v>
@@ -5780,22 +5782,22 @@
         <v>2542.695873660731</v>
       </c>
       <c r="T20" t="n">
-        <v>2320.025807011246</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="U20" t="n">
-        <v>2320.025807011246</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="V20" t="n">
-        <v>2320.025807011246</v>
+        <v>2205.716599556672</v>
       </c>
       <c r="W20" t="n">
-        <v>1957.490876868847</v>
+        <v>1843.181669414273</v>
       </c>
       <c r="X20" t="n">
-        <v>1957.490876868847</v>
+        <v>1843.181669414273</v>
       </c>
       <c r="Y20" t="n">
-        <v>1563.949021444686</v>
+        <v>1843.181669414273</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5831,28 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J21" t="n">
-        <v>130.2226992162549</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K21" t="n">
-        <v>392.3832078845233</v>
+        <v>251.6973914949265</v>
       </c>
       <c r="L21" t="n">
-        <v>802.1338407649491</v>
+        <v>661.4480243753522</v>
       </c>
       <c r="M21" t="n">
-        <v>1014.14682775868</v>
+        <v>1197.744201156453</v>
       </c>
       <c r="N21" t="n">
-        <v>1578.032071547365</v>
+        <v>1761.629444945137</v>
       </c>
       <c r="O21" t="n">
-        <v>2018.368674122672</v>
+        <v>2201.966047520445</v>
       </c>
       <c r="P21" t="n">
-        <v>2359.098500262958</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="Q21" t="n">
-        <v>2542.69587366073</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="R21" t="n">
         <v>2495.728130619192</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>50.85391747321462</v>
+        <v>2178.92037227526</v>
       </c>
       <c r="C22" t="n">
-        <v>50.85391747321462</v>
+        <v>2178.92037227526</v>
       </c>
       <c r="D22" t="n">
-        <v>50.85391747321462</v>
+        <v>2178.92037227526</v>
       </c>
       <c r="E22" t="n">
-        <v>50.85391747321462</v>
+        <v>2178.92037227526</v>
       </c>
       <c r="F22" t="n">
-        <v>50.85391747321462</v>
+        <v>2037.426389402239</v>
       </c>
       <c r="G22" t="n">
-        <v>50.85391747321462</v>
+        <v>1868.679701479524</v>
       </c>
       <c r="H22" t="n">
-        <v>50.85391747321462</v>
+        <v>1868.679701479524</v>
       </c>
       <c r="I22" t="n">
-        <v>50.85391747321462</v>
+        <v>1868.679701479524</v>
       </c>
       <c r="J22" t="n">
-        <v>50.85391747321462</v>
+        <v>1868.679701479524</v>
       </c>
       <c r="K22" t="n">
-        <v>104.1644935890949</v>
+        <v>1921.990277595404</v>
       </c>
       <c r="L22" t="n">
-        <v>229.9889654324849</v>
+        <v>2047.814749438794</v>
       </c>
       <c r="M22" t="n">
-        <v>374.5706761520456</v>
+        <v>2192.396460158355</v>
       </c>
       <c r="N22" t="n">
-        <v>518.9490144159677</v>
+        <v>2336.774798422277</v>
       </c>
       <c r="O22" t="n">
-        <v>641.3872247924078</v>
+        <v>2459.213008798717</v>
       </c>
       <c r="P22" t="n">
-        <v>724.8700896544216</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="Q22" t="n">
-        <v>724.8700896544216</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="R22" t="n">
-        <v>724.8700896544216</v>
+        <v>2400.955531082983</v>
       </c>
       <c r="S22" t="n">
-        <v>724.8700896544216</v>
+        <v>2400.955531082983</v>
       </c>
       <c r="T22" t="n">
-        <v>597.7456233973928</v>
+        <v>2400.955531082983</v>
       </c>
       <c r="U22" t="n">
-        <v>597.7456233973928</v>
+        <v>2400.955531082983</v>
       </c>
       <c r="V22" t="n">
-        <v>337.0103189558155</v>
+        <v>2400.955531082983</v>
       </c>
       <c r="W22" t="n">
-        <v>50.85391747321462</v>
+        <v>2400.955531082983</v>
       </c>
       <c r="X22" t="n">
-        <v>50.85391747321462</v>
+        <v>2400.955531082983</v>
       </c>
       <c r="Y22" t="n">
-        <v>50.85391747321462</v>
+        <v>2178.92037227526</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1190.227921040281</v>
+        <v>861.3578147479845</v>
       </c>
       <c r="C23" t="n">
-        <v>1190.227921040281</v>
+        <v>861.3578147479845</v>
       </c>
       <c r="D23" t="n">
-        <v>1190.227921040281</v>
+        <v>861.3578147479845</v>
       </c>
       <c r="E23" t="n">
-        <v>795.442201146388</v>
+        <v>466.5720948540913</v>
       </c>
       <c r="F23" t="n">
-        <v>795.442201146388</v>
+        <v>466.5720948540913</v>
       </c>
       <c r="G23" t="n">
-        <v>379.7240237655113</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H23" t="n">
         <v>50.85391747321462</v>
       </c>
       <c r="I23" t="n">
-        <v>50.85391747321484</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J23" t="n">
-        <v>154.9459054532638</v>
+        <v>154.9459054532636</v>
       </c>
       <c r="K23" t="n">
-        <v>443.1860302481636</v>
+        <v>443.1860302481635</v>
       </c>
       <c r="L23" t="n">
-        <v>850.7433998907121</v>
+        <v>850.743399890712</v>
       </c>
       <c r="M23" t="n">
         <v>1310.379159876956</v>
@@ -6011,28 +6013,28 @@
         <v>2542.695873660731</v>
       </c>
       <c r="R23" t="n">
-        <v>2542.695873660731</v>
+        <v>2476.292672113454</v>
       </c>
       <c r="S23" t="n">
-        <v>2542.695873660731</v>
+        <v>2297.855323089771</v>
       </c>
       <c r="T23" t="n">
-        <v>2526.626737318056</v>
+        <v>2075.185256440287</v>
       </c>
       <c r="U23" t="n">
-        <v>2271.772265765245</v>
+        <v>2030.973350168672</v>
       </c>
       <c r="V23" t="n">
-        <v>1934.792991661187</v>
+        <v>2030.973350168672</v>
       </c>
       <c r="W23" t="n">
-        <v>1572.258061518788</v>
+        <v>2030.973350168672</v>
       </c>
       <c r="X23" t="n">
-        <v>1190.227921040281</v>
+        <v>1648.943209690166</v>
       </c>
       <c r="Y23" t="n">
-        <v>1190.227921040281</v>
+        <v>1255.401354266004</v>
       </c>
     </row>
     <row r="24">
@@ -6066,16 +6068,16 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J24" t="n">
-        <v>130.2226992162549</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K24" t="n">
-        <v>251.6973914949265</v>
+        <v>313.0144261414831</v>
       </c>
       <c r="L24" t="n">
-        <v>661.4480243753522</v>
+        <v>722.7650590219089</v>
       </c>
       <c r="M24" t="n">
-        <v>1197.744201156453</v>
+        <v>1259.061235803009</v>
       </c>
       <c r="N24" t="n">
         <v>1761.629444945137</v>
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>677.1621677810708</v>
+        <v>271.5824667420745</v>
       </c>
       <c r="C25" t="n">
-        <v>677.1621677810708</v>
+        <v>203.9258106454519</v>
       </c>
       <c r="D25" t="n">
-        <v>524.0902746088335</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="E25" t="n">
-        <v>372.0812603701523</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="F25" t="n">
-        <v>219.6006053959295</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="G25" t="n">
         <v>50.85391747321462</v>
@@ -6154,43 +6156,43 @@
         <v>229.9889654324849</v>
       </c>
       <c r="M25" t="n">
-        <v>374.5706761520456</v>
+        <v>374.5706761520457</v>
       </c>
       <c r="N25" t="n">
-        <v>518.9490144159677</v>
+        <v>518.9490144159678</v>
       </c>
       <c r="O25" t="n">
-        <v>641.3872247924078</v>
+        <v>641.3872247924079</v>
       </c>
       <c r="P25" t="n">
-        <v>724.8700896544216</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="Q25" t="n">
-        <v>700.8242228045381</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="R25" t="n">
-        <v>677.1621677810708</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="S25" t="n">
-        <v>677.1621677810708</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="T25" t="n">
-        <v>677.1621677810708</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="U25" t="n">
-        <v>677.1621677810708</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="V25" t="n">
-        <v>677.1621677810708</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="W25" t="n">
-        <v>677.1621677810708</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="X25" t="n">
-        <v>677.1621677810708</v>
+        <v>493.6176255497975</v>
       </c>
       <c r="Y25" t="n">
-        <v>677.1621677810708</v>
+        <v>271.5824667420745</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1556.818588485842</v>
+        <v>812.2535178649364</v>
       </c>
       <c r="C26" t="n">
-        <v>1174.884829818649</v>
+        <v>812.2535178649364</v>
       </c>
       <c r="D26" t="n">
-        <v>802.0608650458728</v>
+        <v>812.2535178649364</v>
       </c>
       <c r="E26" t="n">
-        <v>407.2751451519796</v>
+        <v>812.2535178649364</v>
       </c>
       <c r="F26" t="n">
-        <v>407.2751451519796</v>
+        <v>795.442201146388</v>
       </c>
       <c r="G26" t="n">
-        <v>407.2751451519796</v>
+        <v>379.7240237655113</v>
       </c>
       <c r="H26" t="n">
-        <v>208.797208433249</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I26" t="n">
         <v>50.85391747321462</v>
       </c>
       <c r="J26" t="n">
-        <v>154.9459054532635</v>
+        <v>154.9459054532634</v>
       </c>
       <c r="K26" t="n">
         <v>443.1860302481634</v>
       </c>
       <c r="L26" t="n">
-        <v>850.7433998907119</v>
+        <v>850.743399890712</v>
       </c>
       <c r="M26" t="n">
         <v>1310.379159876956</v>
       </c>
       <c r="N26" t="n">
-        <v>1756.181478599932</v>
+        <v>1756.181478599933</v>
       </c>
       <c r="O26" t="n">
         <v>2124.896977382889</v>
@@ -6263,13 +6265,13 @@
         <v>1950.862128003861</v>
       </c>
       <c r="W26" t="n">
-        <v>1950.862128003861</v>
+        <v>1588.327197861462</v>
       </c>
       <c r="X26" t="n">
-        <v>1950.862128003861</v>
+        <v>1206.297057382955</v>
       </c>
       <c r="Y26" t="n">
-        <v>1950.862128003861</v>
+        <v>1206.297057382955</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>920.8593958421045</v>
+        <v>920.8593958421042</v>
       </c>
       <c r="C27" t="n">
-        <v>759.1557230830592</v>
+        <v>759.1557230830589</v>
       </c>
       <c r="D27" t="n">
-        <v>620.3170860732713</v>
+        <v>620.317086073271</v>
       </c>
       <c r="E27" t="n">
-        <v>473.2890761301425</v>
+        <v>473.2890761301421</v>
       </c>
       <c r="F27" t="n">
-        <v>338.5952780800169</v>
+        <v>338.5952780800164</v>
       </c>
       <c r="G27" t="n">
         <v>210.0732042050868</v>
@@ -6303,25 +6305,25 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J27" t="n">
-        <v>50.85391747321462</v>
+        <v>130.2226992162549</v>
       </c>
       <c r="K27" t="n">
-        <v>68.10001809715425</v>
+        <v>251.6973914949265</v>
       </c>
       <c r="L27" t="n">
-        <v>477.85065097758</v>
+        <v>661.4480243753522</v>
       </c>
       <c r="M27" t="n">
-        <v>1014.14682775868</v>
+        <v>1197.744201156453</v>
       </c>
       <c r="N27" t="n">
-        <v>1578.032071547365</v>
+        <v>1761.629444945137</v>
       </c>
       <c r="O27" t="n">
-        <v>2018.368674122672</v>
+        <v>2201.966047520445</v>
       </c>
       <c r="P27" t="n">
-        <v>2359.098500262959</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="Q27" t="n">
         <v>2542.695873660731</v>
@@ -6336,10 +6338,10 @@
         <v>2158.909856151447</v>
       </c>
       <c r="U27" t="n">
-        <v>1940.428644414348</v>
+        <v>1940.428644414347</v>
       </c>
       <c r="V27" t="n">
-        <v>1712.033021862682</v>
+        <v>1712.033021862681</v>
       </c>
       <c r="W27" t="n">
         <v>1470.717153095992</v>
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>541.3147209700418</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="C28" t="n">
-        <v>541.3147209700418</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="D28" t="n">
-        <v>524.0902746088335</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="E28" t="n">
-        <v>372.0812603701523</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="F28" t="n">
-        <v>219.6006053959295</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="G28" t="n">
         <v>50.85391747321462</v>
@@ -6391,43 +6393,43 @@
         <v>229.9889654324849</v>
       </c>
       <c r="M28" t="n">
-        <v>374.5706761520456</v>
+        <v>374.5706761520457</v>
       </c>
       <c r="N28" t="n">
-        <v>518.9490144159677</v>
+        <v>518.9490144159678</v>
       </c>
       <c r="O28" t="n">
-        <v>641.3872247924078</v>
+        <v>641.3872247924079</v>
       </c>
       <c r="P28" t="n">
-        <v>724.8700896544216</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="Q28" t="n">
-        <v>724.8700896544216</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="R28" t="n">
-        <v>724.8700896544216</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="S28" t="n">
-        <v>724.8700896544216</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="T28" t="n">
-        <v>724.8700896544216</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="U28" t="n">
-        <v>724.8700896544216</v>
+        <v>437.6892898185817</v>
       </c>
       <c r="V28" t="n">
-        <v>724.8700896544216</v>
+        <v>176.9539853770043</v>
       </c>
       <c r="W28" t="n">
-        <v>724.8700896544216</v>
+        <v>176.9539853770043</v>
       </c>
       <c r="X28" t="n">
-        <v>724.8700896544216</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="Y28" t="n">
-        <v>724.8700896544216</v>
+        <v>50.85391747321462</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2030.266728877783</v>
+        <v>590.7309671004416</v>
       </c>
       <c r="C29" t="n">
-        <v>1648.332970210591</v>
+        <v>208.797208433249</v>
       </c>
       <c r="D29" t="n">
-        <v>1275.509005437814</v>
+        <v>208.797208433249</v>
       </c>
       <c r="E29" t="n">
-        <v>880.7232855439211</v>
+        <v>208.797208433249</v>
       </c>
       <c r="F29" t="n">
-        <v>466.5720948540913</v>
+        <v>208.797208433249</v>
       </c>
       <c r="G29" t="n">
-        <v>50.85391747321462</v>
+        <v>208.797208433249</v>
       </c>
       <c r="H29" t="n">
-        <v>50.85391747321462</v>
+        <v>208.797208433249</v>
       </c>
       <c r="I29" t="n">
         <v>50.85391747321462</v>
       </c>
       <c r="J29" t="n">
-        <v>154.9459054532635</v>
+        <v>154.9459054532636</v>
       </c>
       <c r="K29" t="n">
         <v>443.1860302481634</v>
       </c>
       <c r="L29" t="n">
-        <v>850.7433998907119</v>
+        <v>850.743399890712</v>
       </c>
       <c r="M29" t="n">
         <v>1310.379159876956</v>
@@ -6488,25 +6490,25 @@
         <v>2542.695873660731</v>
       </c>
       <c r="S29" t="n">
-        <v>2542.695873660731</v>
+        <v>2364.258524637049</v>
       </c>
       <c r="T29" t="n">
-        <v>2542.695873660731</v>
+        <v>2141.588457987564</v>
       </c>
       <c r="U29" t="n">
-        <v>2542.695873660731</v>
+        <v>1886.733986434753</v>
       </c>
       <c r="V29" t="n">
-        <v>2205.716599556672</v>
+        <v>1886.733986434753</v>
       </c>
       <c r="W29" t="n">
-        <v>2205.716599556672</v>
+        <v>1760.346502521129</v>
       </c>
       <c r="X29" t="n">
-        <v>2205.716599556672</v>
+        <v>1378.316362042623</v>
       </c>
       <c r="Y29" t="n">
-        <v>2205.716599556672</v>
+        <v>984.7745066184607</v>
       </c>
     </row>
     <row r="30">
@@ -6543,25 +6545,25 @@
         <v>50.85391747321462</v>
       </c>
       <c r="K30" t="n">
-        <v>251.6973914949265</v>
+        <v>313.0144261414831</v>
       </c>
       <c r="L30" t="n">
-        <v>661.4480243753522</v>
+        <v>722.7650590219089</v>
       </c>
       <c r="M30" t="n">
-        <v>1197.744201156453</v>
+        <v>1197.744201156452</v>
       </c>
       <c r="N30" t="n">
         <v>1761.629444945137</v>
       </c>
       <c r="O30" t="n">
-        <v>2201.966047520445</v>
+        <v>2201.966047520444</v>
       </c>
       <c r="P30" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="Q30" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="R30" t="n">
         <v>2495.728130619192</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2037.426389402239</v>
+        <v>220.4698870115343</v>
       </c>
       <c r="C31" t="n">
-        <v>2037.426389402239</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="D31" t="n">
-        <v>2037.426389402239</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="E31" t="n">
-        <v>2037.426389402239</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="F31" t="n">
-        <v>2037.426389402239</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="G31" t="n">
-        <v>1868.679701479524</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H31" t="n">
-        <v>1868.679701479524</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I31" t="n">
-        <v>1868.679701479524</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J31" t="n">
-        <v>1868.679701479524</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K31" t="n">
-        <v>1921.990277595404</v>
+        <v>104.1644935890949</v>
       </c>
       <c r="L31" t="n">
-        <v>2047.814749438794</v>
+        <v>229.9889654324849</v>
       </c>
       <c r="M31" t="n">
-        <v>2192.396460158355</v>
+        <v>374.5706761520457</v>
       </c>
       <c r="N31" t="n">
-        <v>2336.774798422277</v>
+        <v>518.9490144159678</v>
       </c>
       <c r="O31" t="n">
-        <v>2459.213008798717</v>
+        <v>641.3872247924079</v>
       </c>
       <c r="P31" t="n">
-        <v>2542.695873660731</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="Q31" t="n">
-        <v>2542.695873660731</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="R31" t="n">
-        <v>2453.421270057899</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="S31" t="n">
-        <v>2453.421270057899</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="T31" t="n">
-        <v>2220.981758086619</v>
+        <v>691.2060555317541</v>
       </c>
       <c r="U31" t="n">
-        <v>2220.981758086619</v>
+        <v>404.0252556959142</v>
       </c>
       <c r="V31" t="n">
-        <v>2220.981758086619</v>
+        <v>404.0252556959142</v>
       </c>
       <c r="W31" t="n">
-        <v>2220.981758086619</v>
+        <v>404.0252556959142</v>
       </c>
       <c r="X31" t="n">
-        <v>2220.981758086619</v>
+        <v>404.0252556959142</v>
       </c>
       <c r="Y31" t="n">
-        <v>2220.981758086619</v>
+        <v>404.0252556959142</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2148.652334142711</v>
+        <v>761.6577824327039</v>
       </c>
       <c r="C32" t="n">
-        <v>1977.203076502887</v>
+        <v>379.7240237655113</v>
       </c>
       <c r="D32" t="n">
-        <v>1604.379111730111</v>
+        <v>379.7240237655113</v>
       </c>
       <c r="E32" t="n">
-        <v>1209.593391836218</v>
+        <v>379.7240237655113</v>
       </c>
       <c r="F32" t="n">
-        <v>795.442201146388</v>
+        <v>379.7240237655113</v>
       </c>
       <c r="G32" t="n">
         <v>379.7240237655113</v>
@@ -6710,7 +6712,7 @@
         <v>1310.379159876956</v>
       </c>
       <c r="N32" t="n">
-        <v>1756.181478599933</v>
+        <v>1756.181478599932</v>
       </c>
       <c r="O32" t="n">
         <v>2124.896977382889</v>
@@ -6725,25 +6727,25 @@
         <v>2542.695873660731</v>
       </c>
       <c r="S32" t="n">
-        <v>2542.695873660731</v>
+        <v>2364.258524637049</v>
       </c>
       <c r="T32" t="n">
-        <v>2542.695873660731</v>
+        <v>2141.588457987564</v>
       </c>
       <c r="U32" t="n">
-        <v>2542.695873660731</v>
+        <v>1911.778107517284</v>
       </c>
       <c r="V32" t="n">
-        <v>2542.695873660731</v>
+        <v>1911.778107517284</v>
       </c>
       <c r="W32" t="n">
-        <v>2542.695873660731</v>
+        <v>1549.243177374885</v>
       </c>
       <c r="X32" t="n">
-        <v>2542.695873660731</v>
+        <v>1549.243177374885</v>
       </c>
       <c r="Y32" t="n">
-        <v>2542.695873660731</v>
+        <v>1155.701321950723</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>920.8593958421045</v>
+        <v>920.8593958421039</v>
       </c>
       <c r="C33" t="n">
-        <v>759.1557230830592</v>
+        <v>759.1557230830587</v>
       </c>
       <c r="D33" t="n">
-        <v>620.3170860732713</v>
+        <v>620.3170860732707</v>
       </c>
       <c r="E33" t="n">
-        <v>473.2890761301425</v>
+        <v>473.2890761301419</v>
       </c>
       <c r="F33" t="n">
-        <v>338.5952780800163</v>
+        <v>338.5952780800162</v>
       </c>
       <c r="G33" t="n">
         <v>210.0732042050868</v>
@@ -6777,25 +6779,25 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J33" t="n">
-        <v>50.85391747321462</v>
+        <v>130.2226992162549</v>
       </c>
       <c r="K33" t="n">
-        <v>68.10001809715425</v>
+        <v>392.3832078845233</v>
       </c>
       <c r="L33" t="n">
-        <v>477.85065097758</v>
+        <v>802.1338407649491</v>
       </c>
       <c r="M33" t="n">
-        <v>1014.14682775868</v>
+        <v>1338.430017546049</v>
       </c>
       <c r="N33" t="n">
-        <v>1578.032071547365</v>
+        <v>1902.315261334734</v>
       </c>
       <c r="O33" t="n">
-        <v>2018.368674122672</v>
+        <v>2342.651863910041</v>
       </c>
       <c r="P33" t="n">
-        <v>2359.098500262959</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="Q33" t="n">
         <v>2542.695873660731</v>
@@ -6804,19 +6806,19 @@
         <v>2495.728130619192</v>
       </c>
       <c r="S33" t="n">
-        <v>2346.762917934842</v>
+        <v>2346.762917934841</v>
       </c>
       <c r="T33" t="n">
-        <v>2158.909856151447</v>
+        <v>2158.909856151446</v>
       </c>
       <c r="U33" t="n">
-        <v>1940.428644414348</v>
+        <v>1940.428644414347</v>
       </c>
       <c r="V33" t="n">
-        <v>1712.033021862682</v>
+        <v>1712.033021862681</v>
       </c>
       <c r="W33" t="n">
-        <v>1470.717153095992</v>
+        <v>1470.717153095991</v>
       </c>
       <c r="X33" t="n">
         <v>1272.800164973786</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1868.679701479524</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="C34" t="n">
-        <v>1868.679701479524</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="D34" t="n">
-        <v>1868.679701479524</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="E34" t="n">
-        <v>1868.679701479524</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="F34" t="n">
-        <v>1868.679701479524</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="G34" t="n">
-        <v>1868.679701479524</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H34" t="n">
-        <v>1868.679701479524</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I34" t="n">
-        <v>1868.679701479524</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J34" t="n">
-        <v>1868.679701479524</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K34" t="n">
-        <v>1921.990277595404</v>
+        <v>104.1644935890949</v>
       </c>
       <c r="L34" t="n">
-        <v>2047.814749438794</v>
+        <v>229.9889654324849</v>
       </c>
       <c r="M34" t="n">
-        <v>2192.396460158355</v>
+        <v>374.5706761520456</v>
       </c>
       <c r="N34" t="n">
-        <v>2336.774798422277</v>
+        <v>518.9490144159677</v>
       </c>
       <c r="O34" t="n">
-        <v>2459.213008798717</v>
+        <v>641.3872247924078</v>
       </c>
       <c r="P34" t="n">
-        <v>2542.695873660731</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="Q34" t="n">
-        <v>2542.695873660731</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="R34" t="n">
-        <v>2542.695873660731</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="S34" t="n">
-        <v>2542.695873660731</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="T34" t="n">
-        <v>2416.595805756941</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="U34" t="n">
-        <v>2129.415005921101</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="V34" t="n">
-        <v>1868.679701479524</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="W34" t="n">
-        <v>1868.679701479524</v>
+        <v>438.7136881718207</v>
       </c>
       <c r="X34" t="n">
-        <v>1868.679701479524</v>
+        <v>438.7136881718207</v>
       </c>
       <c r="Y34" t="n">
-        <v>1868.679701479524</v>
+        <v>216.6785293640978</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1747.544918469545</v>
+        <v>432.7876761404073</v>
       </c>
       <c r="C35" t="n">
-        <v>1365.611159802352</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="D35" t="n">
-        <v>992.787195029576</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="E35" t="n">
-        <v>598.0014751356828</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="F35" t="n">
-        <v>379.7240237655113</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="G35" t="n">
-        <v>379.7240237655113</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H35" t="n">
         <v>50.85391747321462</v>
@@ -6947,7 +6949,7 @@
         <v>1310.379159876956</v>
       </c>
       <c r="N35" t="n">
-        <v>1756.181478599933</v>
+        <v>1756.181478599932</v>
       </c>
       <c r="O35" t="n">
         <v>2124.896977382889</v>
@@ -6962,25 +6964,25 @@
         <v>2542.695873660731</v>
       </c>
       <c r="S35" t="n">
-        <v>2364.258524637049</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="T35" t="n">
-        <v>2141.588457987564</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="U35" t="n">
-        <v>2141.588457987564</v>
+        <v>2301.917415807553</v>
       </c>
       <c r="V35" t="n">
-        <v>2141.588457987564</v>
+        <v>1964.938141703494</v>
       </c>
       <c r="W35" t="n">
-        <v>2141.588457987564</v>
+        <v>1602.403211561095</v>
       </c>
       <c r="X35" t="n">
-        <v>2141.588457987564</v>
+        <v>1220.373071082588</v>
       </c>
       <c r="Y35" t="n">
-        <v>2141.588457987564</v>
+        <v>826.8312156584263</v>
       </c>
     </row>
     <row r="36">
@@ -7017,25 +7019,25 @@
         <v>130.2226992162549</v>
       </c>
       <c r="K36" t="n">
-        <v>392.3832078845233</v>
+        <v>251.697391494926</v>
       </c>
       <c r="L36" t="n">
-        <v>802.1338407649491</v>
+        <v>661.4480243753518</v>
       </c>
       <c r="M36" t="n">
-        <v>1338.430017546049</v>
+        <v>1197.744201156452</v>
       </c>
       <c r="N36" t="n">
-        <v>1578.032071547365</v>
+        <v>1761.629444945137</v>
       </c>
       <c r="O36" t="n">
-        <v>2018.368674122672</v>
+        <v>2201.966047520444</v>
       </c>
       <c r="P36" t="n">
-        <v>2359.098500262959</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="Q36" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="R36" t="n">
         <v>2495.728130619192</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>50.85391747321462</v>
+        <v>2159.687352599059</v>
       </c>
       <c r="C37" t="n">
-        <v>50.85391747321462</v>
+        <v>2159.687352599059</v>
       </c>
       <c r="D37" t="n">
-        <v>50.85391747321462</v>
+        <v>2159.687352599059</v>
       </c>
       <c r="E37" t="n">
-        <v>50.85391747321462</v>
+        <v>2007.678338360378</v>
       </c>
       <c r="F37" t="n">
-        <v>50.85391747321462</v>
+        <v>2007.678338360378</v>
       </c>
       <c r="G37" t="n">
-        <v>50.85391747321462</v>
+        <v>2007.678338360378</v>
       </c>
       <c r="H37" t="n">
-        <v>50.85391747321462</v>
+        <v>2007.678338360378</v>
       </c>
       <c r="I37" t="n">
-        <v>50.85391747321462</v>
+        <v>1868.679701479524</v>
       </c>
       <c r="J37" t="n">
-        <v>50.85391747321462</v>
+        <v>1868.679701479524</v>
       </c>
       <c r="K37" t="n">
-        <v>104.1644935890949</v>
+        <v>1921.990277595404</v>
       </c>
       <c r="L37" t="n">
-        <v>229.9889654324849</v>
+        <v>2047.814749438794</v>
       </c>
       <c r="M37" t="n">
-        <v>374.5706761520456</v>
+        <v>2192.396460158355</v>
       </c>
       <c r="N37" t="n">
-        <v>518.9490144159677</v>
+        <v>2336.774798422277</v>
       </c>
       <c r="O37" t="n">
-        <v>641.3872247924078</v>
+        <v>2459.213008798717</v>
       </c>
       <c r="P37" t="n">
-        <v>724.8700896544216</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="Q37" t="n">
-        <v>724.8700896544216</v>
+        <v>2518.650006810847</v>
       </c>
       <c r="R37" t="n">
-        <v>724.8700896544216</v>
+        <v>2376.9096642331</v>
       </c>
       <c r="S37" t="n">
-        <v>724.8700896544216</v>
+        <v>2166.215877818488</v>
       </c>
       <c r="T37" t="n">
-        <v>724.8700896544216</v>
+        <v>2159.687352599059</v>
       </c>
       <c r="U37" t="n">
-        <v>437.6892898185816</v>
+        <v>2159.687352599059</v>
       </c>
       <c r="V37" t="n">
-        <v>437.6892898185816</v>
+        <v>2159.687352599059</v>
       </c>
       <c r="W37" t="n">
-        <v>437.6892898185816</v>
+        <v>2159.687352599059</v>
       </c>
       <c r="X37" t="n">
-        <v>272.8890762809376</v>
+        <v>2159.687352599059</v>
       </c>
       <c r="Y37" t="n">
-        <v>50.85391747321462</v>
+        <v>2159.687352599059</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>445.6396373671078</v>
+        <v>2148.652334142712</v>
       </c>
       <c r="C38" t="n">
-        <v>445.6396373671078</v>
+        <v>1766.718575475519</v>
       </c>
       <c r="D38" t="n">
-        <v>445.6396373671078</v>
+        <v>1393.894610702743</v>
       </c>
       <c r="E38" t="n">
-        <v>50.85391747321462</v>
+        <v>999.1088908088495</v>
       </c>
       <c r="F38" t="n">
-        <v>50.85391747321462</v>
+        <v>584.9577001190198</v>
       </c>
       <c r="G38" t="n">
-        <v>50.85391747321462</v>
+        <v>379.7240237655113</v>
       </c>
       <c r="H38" t="n">
         <v>50.85391747321462</v>
@@ -7184,13 +7186,13 @@
         <v>1310.379159876956</v>
       </c>
       <c r="N38" t="n">
-        <v>1756.181478599933</v>
+        <v>1756.181478599932</v>
       </c>
       <c r="O38" t="n">
         <v>2124.896977382889</v>
       </c>
       <c r="P38" t="n">
-        <v>2407.429665198535</v>
+        <v>2407.429665198536</v>
       </c>
       <c r="Q38" t="n">
         <v>2542.695873660731</v>
@@ -7199,25 +7201,25 @@
         <v>2542.695873660731</v>
       </c>
       <c r="S38" t="n">
-        <v>2364.258524637049</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="T38" t="n">
-        <v>2141.588457987564</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="U38" t="n">
-        <v>2141.588457987564</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="V38" t="n">
-        <v>1804.609183883505</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="W38" t="n">
-        <v>1442.074253741107</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="X38" t="n">
-        <v>1060.0441132626</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="Y38" t="n">
-        <v>666.5022578384379</v>
+        <v>2542.695873660731</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>920.8593958421045</v>
+        <v>920.8593958421039</v>
       </c>
       <c r="C39" t="n">
-        <v>759.1557230830592</v>
+        <v>759.1557230830587</v>
       </c>
       <c r="D39" t="n">
-        <v>620.3170860732713</v>
+        <v>620.3170860732707</v>
       </c>
       <c r="E39" t="n">
-        <v>473.2890761301425</v>
+        <v>473.289076130142</v>
       </c>
       <c r="F39" t="n">
-        <v>338.5952780800169</v>
+        <v>338.5952780800163</v>
       </c>
       <c r="G39" t="n">
-        <v>210.0732042050874</v>
+        <v>210.0732042050868</v>
       </c>
       <c r="H39" t="n">
-        <v>112.1289883137705</v>
+        <v>112.1289883137699</v>
       </c>
       <c r="I39" t="n">
         <v>50.85391747321462</v>
@@ -7257,40 +7259,40 @@
         <v>392.3832078845233</v>
       </c>
       <c r="L39" t="n">
-        <v>477.85065097758</v>
+        <v>802.1338407649491</v>
       </c>
       <c r="M39" t="n">
-        <v>1014.14682775868</v>
+        <v>1338.430017546049</v>
       </c>
       <c r="N39" t="n">
-        <v>1578.032071547365</v>
+        <v>1902.315261334734</v>
       </c>
       <c r="O39" t="n">
-        <v>2018.368674122672</v>
+        <v>2201.966047520444</v>
       </c>
       <c r="P39" t="n">
-        <v>2359.098500262959</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="Q39" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="R39" t="n">
         <v>2495.728130619192</v>
       </c>
       <c r="S39" t="n">
-        <v>2346.762917934842</v>
+        <v>2346.762917934841</v>
       </c>
       <c r="T39" t="n">
-        <v>2158.909856151447</v>
+        <v>2158.909856151446</v>
       </c>
       <c r="U39" t="n">
-        <v>1940.428644414348</v>
+        <v>1940.428644414347</v>
       </c>
       <c r="V39" t="n">
-        <v>1712.033021862682</v>
+        <v>1712.033021862681</v>
       </c>
       <c r="W39" t="n">
-        <v>1470.717153095992</v>
+        <v>1470.717153095991</v>
       </c>
       <c r="X39" t="n">
         <v>1272.800164973786</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2038.295671017843</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="C40" t="n">
-        <v>1868.679701479524</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="D40" t="n">
-        <v>1868.679701479524</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="E40" t="n">
-        <v>1868.679701479524</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="F40" t="n">
-        <v>1868.679701479524</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="G40" t="n">
-        <v>1868.679701479524</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H40" t="n">
-        <v>1868.679701479524</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I40" t="n">
-        <v>1868.679701479524</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J40" t="n">
-        <v>1868.679701479524</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K40" t="n">
-        <v>1921.990277595404</v>
+        <v>104.1644935890949</v>
       </c>
       <c r="L40" t="n">
-        <v>2047.814749438794</v>
+        <v>229.9889654324849</v>
       </c>
       <c r="M40" t="n">
-        <v>2192.396460158355</v>
+        <v>374.5706761520456</v>
       </c>
       <c r="N40" t="n">
-        <v>2336.774798422277</v>
+        <v>518.9490144159677</v>
       </c>
       <c r="O40" t="n">
-        <v>2459.213008798717</v>
+        <v>641.3872247924078</v>
       </c>
       <c r="P40" t="n">
-        <v>2542.695873660731</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="Q40" t="n">
-        <v>2542.695873660731</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="R40" t="n">
-        <v>2542.695873660731</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="S40" t="n">
-        <v>2542.695873660731</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="T40" t="n">
-        <v>2542.695873660731</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="U40" t="n">
-        <v>2542.695873660731</v>
+        <v>437.6892898185816</v>
       </c>
       <c r="V40" t="n">
-        <v>2542.695873660731</v>
+        <v>176.9539853770042</v>
       </c>
       <c r="W40" t="n">
-        <v>2542.695873660731</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="X40" t="n">
-        <v>2443.886198509946</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="Y40" t="n">
-        <v>2221.851039702223</v>
+        <v>50.85391747321462</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1275.509005437814</v>
+        <v>774.5097436594044</v>
       </c>
       <c r="C41" t="n">
-        <v>1275.509005437814</v>
+        <v>774.5097436594044</v>
       </c>
       <c r="D41" t="n">
-        <v>1275.509005437814</v>
+        <v>774.5097436594044</v>
       </c>
       <c r="E41" t="n">
-        <v>880.7232855439211</v>
+        <v>379.7240237655113</v>
       </c>
       <c r="F41" t="n">
-        <v>466.5720948540913</v>
+        <v>379.7240237655113</v>
       </c>
       <c r="G41" t="n">
-        <v>50.85391747321462</v>
+        <v>379.7240237655113</v>
       </c>
       <c r="H41" t="n">
         <v>50.85391747321462</v>
@@ -7412,16 +7414,16 @@
         <v>154.9459054532635</v>
       </c>
       <c r="K41" t="n">
-        <v>443.1860302481634</v>
+        <v>443.1860302481636</v>
       </c>
       <c r="L41" t="n">
-        <v>850.7433998907119</v>
+        <v>850.7433998907121</v>
       </c>
       <c r="M41" t="n">
         <v>1310.379159876956</v>
       </c>
       <c r="N41" t="n">
-        <v>1756.181478599932</v>
+        <v>1756.181478599933</v>
       </c>
       <c r="O41" t="n">
         <v>2124.896977382889</v>
@@ -7436,25 +7438,25 @@
         <v>2542.695873660731</v>
       </c>
       <c r="S41" t="n">
-        <v>2542.695873660731</v>
+        <v>2376.59895090794</v>
       </c>
       <c r="T41" t="n">
-        <v>2414.117615576739</v>
+        <v>2153.928884258455</v>
       </c>
       <c r="U41" t="n">
-        <v>2414.117615576739</v>
+        <v>1899.074412705644</v>
       </c>
       <c r="V41" t="n">
-        <v>2414.117615576739</v>
+        <v>1562.095138601585</v>
       </c>
       <c r="W41" t="n">
-        <v>2051.58268543434</v>
+        <v>1562.095138601585</v>
       </c>
       <c r="X41" t="n">
-        <v>1669.552544955833</v>
+        <v>1562.095138601585</v>
       </c>
       <c r="Y41" t="n">
-        <v>1669.552544955833</v>
+        <v>1168.553283177424</v>
       </c>
     </row>
     <row r="42">
@@ -7503,13 +7505,13 @@
         <v>1902.315261334734</v>
       </c>
       <c r="O42" t="n">
-        <v>2342.651863910041</v>
+        <v>2018.368674122672</v>
       </c>
       <c r="P42" t="n">
-        <v>2359.098500262958</v>
+        <v>2359.098500262959</v>
       </c>
       <c r="Q42" t="n">
-        <v>2542.69587366073</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="R42" t="n">
         <v>2495.728130619192</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2542.695873660731</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="C43" t="n">
-        <v>2542.695873660731</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="D43" t="n">
-        <v>2389.623980488494</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="E43" t="n">
-        <v>2237.614966249812</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="F43" t="n">
-        <v>2085.134311275589</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="G43" t="n">
-        <v>2055.500184789141</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H43" t="n">
-        <v>2055.500184789141</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I43" t="n">
-        <v>1916.501547908287</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J43" t="n">
-        <v>1868.679701479524</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K43" t="n">
-        <v>1921.990277595404</v>
+        <v>104.1644935890949</v>
       </c>
       <c r="L43" t="n">
-        <v>2047.814749438794</v>
+        <v>229.9889654324849</v>
       </c>
       <c r="M43" t="n">
-        <v>2192.396460158355</v>
+        <v>374.5706761520456</v>
       </c>
       <c r="N43" t="n">
-        <v>2336.774798422277</v>
+        <v>518.9490144159677</v>
       </c>
       <c r="O43" t="n">
-        <v>2459.213008798717</v>
+        <v>641.3872247924078</v>
       </c>
       <c r="P43" t="n">
-        <v>2542.695873660731</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="Q43" t="n">
-        <v>2542.695873660731</v>
+        <v>700.8242228045381</v>
       </c>
       <c r="R43" t="n">
-        <v>2542.695873660731</v>
+        <v>559.0838802267906</v>
       </c>
       <c r="S43" t="n">
-        <v>2542.695873660731</v>
+        <v>559.0838802267906</v>
       </c>
       <c r="T43" t="n">
-        <v>2542.695873660731</v>
+        <v>559.0838802267906</v>
       </c>
       <c r="U43" t="n">
-        <v>2542.695873660731</v>
+        <v>311.589221914792</v>
       </c>
       <c r="V43" t="n">
-        <v>2542.695873660731</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="W43" t="n">
-        <v>2542.695873660731</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="X43" t="n">
-        <v>2542.695873660731</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="Y43" t="n">
-        <v>2542.695873660731</v>
+        <v>50.85391747321462</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7636,7 @@
         <v>999.5141930913924</v>
       </c>
       <c r="F44" t="n">
-        <v>795.442201146388</v>
+        <v>585.3630024015627</v>
       </c>
       <c r="G44" t="n">
         <v>379.7240237655113</v>
@@ -7725,28 +7727,28 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J45" t="n">
-        <v>50.85391747321462</v>
+        <v>130.2226992162549</v>
       </c>
       <c r="K45" t="n">
-        <v>313.014426141483</v>
+        <v>392.3832078845233</v>
       </c>
       <c r="L45" t="n">
-        <v>722.7650590219088</v>
+        <v>802.1338407649491</v>
       </c>
       <c r="M45" t="n">
-        <v>1259.061235803009</v>
+        <v>1338.430017546049</v>
       </c>
       <c r="N45" t="n">
-        <v>1761.629444945137</v>
+        <v>1902.315261334734</v>
       </c>
       <c r="O45" t="n">
-        <v>2201.966047520445</v>
+        <v>2342.651863910041</v>
       </c>
       <c r="P45" t="n">
-        <v>2542.695873660731</v>
+        <v>2359.098500262958</v>
       </c>
       <c r="Q45" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="R45" t="n">
         <v>2495.728130619192</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1868.679701479524</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="C46" t="n">
-        <v>1868.679701479524</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="D46" t="n">
-        <v>1868.679701479524</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="E46" t="n">
-        <v>1868.679701479524</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="F46" t="n">
-        <v>1868.679701479524</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="G46" t="n">
-        <v>1868.679701479524</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H46" t="n">
-        <v>1868.679701479524</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I46" t="n">
-        <v>1868.679701479524</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J46" t="n">
-        <v>1868.679701479524</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K46" t="n">
-        <v>1921.990277595404</v>
+        <v>104.1644935890949</v>
       </c>
       <c r="L46" t="n">
-        <v>2047.814749438794</v>
+        <v>229.9889654324849</v>
       </c>
       <c r="M46" t="n">
-        <v>2192.396460158355</v>
+        <v>374.5706761520456</v>
       </c>
       <c r="N46" t="n">
-        <v>2336.774798422277</v>
+        <v>518.9490144159677</v>
       </c>
       <c r="O46" t="n">
-        <v>2459.213008798717</v>
+        <v>641.3872247924078</v>
       </c>
       <c r="P46" t="n">
-        <v>2542.695873660731</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="Q46" t="n">
-        <v>2542.695873660731</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="R46" t="n">
-        <v>2542.695873660731</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="S46" t="n">
-        <v>2542.695873660731</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="T46" t="n">
-        <v>2542.695873660731</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="U46" t="n">
-        <v>2255.515073824891</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="V46" t="n">
-        <v>2255.515073824891</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="W46" t="n">
-        <v>1969.35867234229</v>
+        <v>504.1415403855618</v>
       </c>
       <c r="X46" t="n">
-        <v>1868.679701479524</v>
+        <v>272.8890762809376</v>
       </c>
       <c r="Y46" t="n">
-        <v>1868.679701479524</v>
+        <v>50.85391747321462</v>
       </c>
     </row>
   </sheetData>
@@ -8061,10 +8063,10 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L3" t="n">
-        <v>482.0924488944969</v>
+        <v>192.2208680885929</v>
       </c>
       <c r="M3" t="n">
-        <v>156.1797194573845</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N3" t="n">
         <v>623.1450866466196</v>
@@ -8076,7 +8078,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q3" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8292,7 +8294,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K6" t="n">
         <v>343.8048081163522</v>
@@ -8304,10 +8306,10 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N6" t="n">
-        <v>394.1362801165803</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O6" t="n">
-        <v>512.0210150597484</v>
+        <v>222.1494342538443</v>
       </c>
       <c r="P6" t="n">
         <v>414.0015992319183</v>
@@ -8541,7 +8543,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N9" t="n">
-        <v>394.1362801165808</v>
+        <v>394.1362801165803</v>
       </c>
       <c r="O9" t="n">
         <v>512.0210150597484</v>
@@ -8766,10 +8768,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>83.74785933339987</v>
+        <v>83.74785933339989</v>
       </c>
       <c r="K12" t="n">
-        <v>343.8048081163522</v>
+        <v>96.41651716248475</v>
       </c>
       <c r="L12" t="n">
         <v>482.0924488944969</v>
@@ -8784,10 +8786,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
-        <v>352.065200599033</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>87.64858173562192</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -9003,10 +9005,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>163.9183459425315</v>
+        <v>83.74785933339989</v>
       </c>
       <c r="K15" t="n">
-        <v>343.8048081163522</v>
+        <v>281.8684094834661</v>
       </c>
       <c r="L15" t="n">
         <v>482.0924488944969</v>
@@ -9015,7 +9017,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
-        <v>295.5863090836206</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
@@ -9024,7 +9026,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>273.1004740566038</v>
+        <v>87.64858173562195</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9240,10 +9242,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>163.9183459425315</v>
+        <v>83.74785933339989</v>
       </c>
       <c r="K18" t="n">
-        <v>343.8048081163522</v>
+        <v>281.8684094834666</v>
       </c>
       <c r="L18" t="n">
         <v>482.0924488944969</v>
@@ -9255,13 +9257,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O18" t="n">
-        <v>184.4622374967492</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P18" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>273.1004740566038</v>
+        <v>87.64858173562195</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9477,16 +9479,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>163.9183459425315</v>
+        <v>83.74785933339987</v>
       </c>
       <c r="K21" t="n">
-        <v>343.8048081163522</v>
+        <v>281.8684094834668</v>
       </c>
       <c r="L21" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
-        <v>277.8578053120004</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
         <v>623.1450866466196</v>
@@ -9498,7 +9500,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>273.1004740566038</v>
+        <v>87.6485817356219</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9714,10 +9716,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>163.9183459425315</v>
+        <v>83.74785933339986</v>
       </c>
       <c r="K24" t="n">
-        <v>201.6979228743352</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
         <v>482.0924488944969</v>
@@ -9726,7 +9728,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>623.1450866466196</v>
+        <v>561.208688013734</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -9735,7 +9737,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>87.64858173562192</v>
+        <v>87.64858173562189</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9951,10 +9953,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>83.74785933339987</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K27" t="n">
-        <v>96.41651716248475</v>
+        <v>201.6979228743351</v>
       </c>
       <c r="L27" t="n">
         <v>482.0924488944969</v>
@@ -9972,7 +9974,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>273.1004740566038</v>
+        <v>87.64858173562189</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10130,7 +10132,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q29" t="n">
-        <v>276.0094878578761</v>
+        <v>276.0094878578759</v>
       </c>
       <c r="R29" t="n">
         <v>85.43134583487716</v>
@@ -10188,16 +10190,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>83.74785933339987</v>
+        <v>83.74785933339986</v>
       </c>
       <c r="K30" t="n">
-        <v>281.8684094834668</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L30" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M30" t="n">
-        <v>605.4165828749999</v>
+        <v>543.480184242114</v>
       </c>
       <c r="N30" t="n">
         <v>623.1450866466196</v>
@@ -10209,7 +10211,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
-        <v>87.64858173562192</v>
+        <v>87.64858173562189</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10425,10 +10427,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>83.74785933339987</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K33" t="n">
-        <v>96.41651716248475</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L33" t="n">
         <v>482.0924488944969</v>
@@ -10443,10 +10445,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P33" t="n">
-        <v>414.0015992319183</v>
+        <v>271.8947139899012</v>
       </c>
       <c r="Q33" t="n">
-        <v>273.1004740566038</v>
+        <v>87.64858173562192</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10665,7 +10667,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K36" t="n">
-        <v>343.8048081163522</v>
+        <v>201.6979228743347</v>
       </c>
       <c r="L36" t="n">
         <v>482.0924488944969</v>
@@ -10674,7 +10676,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>295.5863090836206</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
@@ -10683,7 +10685,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
-        <v>273.1004740566038</v>
+        <v>87.64858173562192</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10905,7 +10907,7 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L39" t="n">
-        <v>154.5336713314979</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M39" t="n">
         <v>605.4165828749999</v>
@@ -10914,13 +10916,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O39" t="n">
-        <v>512.0210150597484</v>
+        <v>369.914129817731</v>
       </c>
       <c r="P39" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>273.1004740566038</v>
+        <v>87.64858173562192</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11072,7 +11074,7 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O41" t="n">
-        <v>495.0402356415691</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P41" t="n">
         <v>418.3383206229274</v>
@@ -11151,10 +11153,10 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O42" t="n">
-        <v>512.0210150597484</v>
+        <v>184.4622374967492</v>
       </c>
       <c r="P42" t="n">
-        <v>86.44282166891881</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
         <v>273.1004740566038</v>
@@ -11373,7 +11375,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>83.74785933339987</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K45" t="n">
         <v>343.8048081163522</v>
@@ -11385,16 +11387,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>561.2086880137342</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P45" t="n">
-        <v>414.0015992319183</v>
+        <v>86.44282166891881</v>
       </c>
       <c r="Q45" t="n">
-        <v>87.64858173562192</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -22544,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>369.0957251250487</v>
+        <v>133.304035625478</v>
       </c>
       <c r="E2" t="n">
-        <v>260.721877437185</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,7 +22594,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>185.3566856159496</v>
@@ -22607,7 +22609,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>378.2098390737216</v>
@@ -22629,19 +22631,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>48.51673623083873</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
         <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -22686,10 +22688,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>32.54502902440808</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -22726,7 +22728,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22756,7 +22758,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>101.8597073339676</v>
+        <v>161.3163735339366</v>
       </c>
       <c r="U4" t="n">
         <v>284.3183371157911</v>
@@ -22787,16 +22789,16 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
-        <v>277.9142631541866</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>411.9429466803539</v>
+        <v>333.4232037808511</v>
       </c>
       <c r="H5" t="n">
         <v>329.4930616586638</v>
@@ -22829,16 +22831,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -22847,7 +22849,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22872,16 +22874,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>101.5979585925484</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22911,16 +22913,16 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>28.09477831004497</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -22948,22 +22950,22 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E7" t="n">
-        <v>99.71558964164922</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I7" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,13 +22986,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>211.5726649703493</v>
+        <v>73.23022383480696</v>
       </c>
       <c r="T7" t="n">
         <v>230.8471636524779</v>
@@ -23018,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H8" t="n">
         <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23081,10 +23083,10 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>358.909580840975</v>
+        <v>225.4424436438509</v>
       </c>
       <c r="X8" t="n">
-        <v>113.0991274359984</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23097,10 +23099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -23118,7 +23120,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23145,16 +23147,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
-        <v>77.76423052020165</v>
+        <v>19.5827420692089</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -23182,7 +23184,7 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D10" t="n">
-        <v>151.5411742405149</v>
+        <v>100.7678397858698</v>
       </c>
       <c r="E10" t="n">
         <v>150.4889240962943</v>
@@ -23197,7 +23199,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>91.98767949870322</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
         <v>59.456666199969</v>
@@ -23312,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>98.65634353035529</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>98.6563435303558</v>
       </c>
     </row>
     <row r="12">
@@ -23419,25 +23421,25 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D13" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>150.4889240962943</v>
+        <v>109.0247957494538</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.0592210434877</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.2556384040709</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>120.5065807525132</v>
+        <v>137.6086505120454</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>47.34362796447566</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,16 +23460,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>23.80540818138467</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>140.32293915197</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>208.5868485504649</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>230.1151168515673</v>
       </c>
       <c r="U13" t="n">
         <v>284.3089918374816</v>
@@ -23492,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>181.8456036944801</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>411.5609956070679</v>
       </c>
       <c r="H14" t="n">
-        <v>274.1188255488994</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>156.363858050434</v>
@@ -23540,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.73916953180446</v>
       </c>
       <c r="S14" t="n">
         <v>176.6529755334452</v>
       </c>
       <c r="T14" t="n">
-        <v>220.4433659829895</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>252.305926837283</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23668,13 +23670,13 @@
         <v>167.0592210434877</v>
       </c>
       <c r="H16" t="n">
-        <v>156.2556384040709</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>137.6086505120454</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>47.34362796447566</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23704,10 +23706,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>229.4185911921085</v>
       </c>
       <c r="U16" t="n">
-        <v>267.2069220779493</v>
+        <v>284.3089918374816</v>
       </c>
       <c r="V16" t="n">
         <v>258.1279513971616</v>
@@ -23729,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>98.6563435303554</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>369.0957251250487</v>
@@ -23777,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.73916953180446</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>176.6529755334452</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>220.4433659829895</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>13.93525356263704</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>181.719814997536</v>
+        <v>82.04763384339769</v>
       </c>
       <c r="C19" t="n">
         <v>167.9198098429365</v>
@@ -23911,7 +23913,7 @@
         <v>137.6086505120454</v>
       </c>
       <c r="J19" t="n">
-        <v>47.34362796447565</v>
+        <v>47.34362796447566</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>23.80540818138466</v>
+        <v>23.80540818138467</v>
       </c>
       <c r="R19" t="n">
         <v>140.32293915197</v>
@@ -23941,16 +23943,16 @@
         <v>208.5868485504649</v>
       </c>
       <c r="T19" t="n">
-        <v>105.2760496268156</v>
+        <v>230.1151168515673</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W19" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>228.939939463578</v>
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C20" t="n">
         <v>378.1144210805207</v>
@@ -23975,19 +23977,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>154.7409352030071</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>132.6811930177282</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>156.363858050434</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24020,13 +24022,13 @@
         <v>176.6529755334452</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>220.4433659829895</v>
       </c>
       <c r="U20" t="n">
         <v>252.305926837283</v>
       </c>
       <c r="V20" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24035,7 +24037,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="21">
@@ -24136,10 +24138,10 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
-        <v>150.9558484244806</v>
+        <v>10.87680538018921</v>
       </c>
       <c r="G22" t="n">
-        <v>167.0592210434877</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>156.2556384040709</v>
@@ -24148,7 +24150,7 @@
         <v>137.6086505120454</v>
       </c>
       <c r="J22" t="n">
-        <v>47.34362796447565</v>
+        <v>47.34362796447564</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24172,28 +24174,28 @@
         <v>23.80540818138466</v>
       </c>
       <c r="R22" t="n">
-        <v>140.32293915197</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>208.5868485504649</v>
       </c>
       <c r="T22" t="n">
-        <v>104.2618952571089</v>
+        <v>230.1151168515673</v>
       </c>
       <c r="U22" t="n">
         <v>284.3089918374816</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X22" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y22" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>378.1144210805207</v>
@@ -24221,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>325.5814052293737</v>
       </c>
       <c r="I23" t="n">
         <v>156.363858050434</v>
@@ -24251,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.73916953180444</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>176.6529755334452</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>204.5349210037418</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>208.5361396283843</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24364,19 +24366,19 @@
         <v>181.719814997536</v>
       </c>
       <c r="C25" t="n">
-        <v>167.9198098429365</v>
+        <v>100.9397203072801</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.0592210434877</v>
       </c>
       <c r="H25" t="n">
         <v>156.2556384040709</v>
@@ -24385,7 +24387,7 @@
         <v>137.6086505120454</v>
       </c>
       <c r="J25" t="n">
-        <v>47.34362796447565</v>
+        <v>47.34362796447564</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,10 +24408,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>23.80540818138465</v>
       </c>
       <c r="R25" t="n">
-        <v>116.8975046787374</v>
+        <v>140.32293915197</v>
       </c>
       <c r="S25" t="n">
         <v>208.5868485504649</v>
@@ -24427,10 +24429,10 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X25" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24443,25 +24445,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F26" t="n">
-        <v>410.0096787829314</v>
+        <v>393.3664752315685</v>
       </c>
       <c r="G26" t="n">
-        <v>411.5609956070679</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>129.0882478778304</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>156.363858050434</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.73916953180444</v>
+        <v>65.73916953180442</v>
       </c>
       <c r="S26" t="n">
         <v>176.6529755334452</v>
@@ -24503,10 +24505,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>389.6064368699203</v>
@@ -24598,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C28" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D28" t="n">
-        <v>134.4889723429187</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.0592210434877</v>
       </c>
       <c r="H28" t="n">
         <v>156.2556384040709</v>
@@ -24622,7 +24624,7 @@
         <v>137.6086505120454</v>
       </c>
       <c r="J28" t="n">
-        <v>47.34362796447565</v>
+        <v>47.34362796447564</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>23.80540818138466</v>
+        <v>23.80540818138465</v>
       </c>
       <c r="R28" t="n">
         <v>140.32293915197</v>
@@ -24655,16 +24657,16 @@
         <v>230.1151168515673</v>
       </c>
       <c r="U28" t="n">
-        <v>284.3089918374816</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X28" t="n">
-        <v>228.939939463578</v>
+        <v>104.1008722388262</v>
       </c>
       <c r="Y28" t="n">
         <v>219.8148072196457</v>
@@ -24677,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>216.4077321507392</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>411.5609956070679</v>
       </c>
       <c r="H29" t="n">
         <v>325.5814052293737</v>
       </c>
       <c r="I29" t="n">
-        <v>156.363858050434</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.73916953180444</v>
+        <v>65.73916953180442</v>
       </c>
       <c r="S29" t="n">
-        <v>176.6529755334452</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>220.4433659829895</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>252.305926837283</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W29" t="n">
-        <v>358.909580840975</v>
+        <v>233.7859717664874</v>
       </c>
       <c r="X29" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24838,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>151.5411742405149</v>
@@ -24850,7 +24852,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.0592210434877</v>
       </c>
       <c r="H31" t="n">
         <v>156.2556384040709</v>
@@ -24859,7 +24861,7 @@
         <v>137.6086505120454</v>
       </c>
       <c r="J31" t="n">
-        <v>47.34362796447565</v>
+        <v>47.34362796447564</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,19 +24882,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>23.80540818138466</v>
+        <v>23.80540818138465</v>
       </c>
       <c r="R31" t="n">
-        <v>51.94108158516674</v>
+        <v>140.32293915197</v>
       </c>
       <c r="S31" t="n">
         <v>208.5868485504649</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>196.7877230701265</v>
       </c>
       <c r="U31" t="n">
-        <v>284.3089918374816</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>258.1279513971616</v>
@@ -24917,19 +24919,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>208.3796560170949</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>411.5609956070679</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24965,25 +24967,25 @@
         <v>65.73916953180444</v>
       </c>
       <c r="S32" t="n">
-        <v>176.6529755334452</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>220.4433659829895</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>252.305926837283</v>
+        <v>24.79367987170548</v>
       </c>
       <c r="V32" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W32" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y32" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>181.719814997536</v>
+        <v>17.55344922556168</v>
       </c>
       <c r="C34" t="n">
         <v>167.9198098429365</v>
@@ -25126,22 +25128,22 @@
         <v>208.5868485504649</v>
       </c>
       <c r="T34" t="n">
-        <v>105.2760496268155</v>
+        <v>230.1151168515673</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>284.3089918374816</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W34" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y34" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25157,19 +25159,19 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F35" t="n">
-        <v>193.9150019264617</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G35" t="n">
         <v>411.5609956070679</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>325.5814052293737</v>
       </c>
       <c r="I35" t="n">
         <v>156.363858050434</v>
@@ -25202,25 +25204,25 @@
         <v>65.73916953180444</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>176.6529755334452</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>220.4433659829895</v>
       </c>
       <c r="U35" t="n">
-        <v>252.305926837283</v>
+        <v>13.93525356263657</v>
       </c>
       <c r="V35" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25318,7 +25320,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>150.9558484244806</v>
@@ -25330,7 +25332,7 @@
         <v>156.2556384040709</v>
       </c>
       <c r="I37" t="n">
-        <v>137.6086505120454</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>47.34362796447565</v>
@@ -25354,19 +25356,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>23.80540818138466</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>140.32293915197</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>208.5868485504649</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>230.1151168515673</v>
+        <v>223.6518768843322</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>284.3089918374816</v>
       </c>
       <c r="V37" t="n">
         <v>258.1279513971616</v>
@@ -25375,10 +25377,10 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X37" t="n">
-        <v>65.78772806131042</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="38">
@@ -25388,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>171.4491098562221</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>411.5609956070679</v>
+        <v>208.3796560170945</v>
       </c>
       <c r="H38" t="n">
-        <v>325.5814052293737</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>156.363858050434</v>
@@ -25439,25 +25441,25 @@
         <v>65.73916953180444</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>176.6529755334452</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>220.4433659829895</v>
       </c>
       <c r="U38" t="n">
         <v>252.305926837283</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="39">
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D40" t="n">
         <v>151.5411742405149</v>
@@ -25603,19 +25605,19 @@
         <v>230.1151168515673</v>
       </c>
       <c r="U40" t="n">
-        <v>284.3089918374816</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>283.2948374677749</v>
+        <v>158.4557702430232</v>
       </c>
       <c r="X40" t="n">
-        <v>131.1183610643012</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="41">
@@ -25637,13 +25639,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>411.5609956070679</v>
       </c>
       <c r="H41" t="n">
-        <v>325.5814052293737</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>156.363858050434</v>
@@ -25676,25 +25678,25 @@
         <v>65.73916953180444</v>
       </c>
       <c r="S41" t="n">
-        <v>176.6529755334452</v>
+        <v>12.21702200818189</v>
       </c>
       <c r="T41" t="n">
-        <v>93.15089047983763</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>252.305926837283</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y41" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25789,25 +25791,25 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>137.721435821904</v>
+        <v>167.0592210434877</v>
       </c>
       <c r="H43" t="n">
         <v>156.2556384040709</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>137.6086505120454</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>47.34362796447565</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,10 +25830,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>23.80540818138466</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>140.32293915197</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>208.5868485504649</v>
@@ -25840,10 +25842,10 @@
         <v>230.1151168515673</v>
       </c>
       <c r="U43" t="n">
-        <v>284.3089918374816</v>
+        <v>39.28928010860304</v>
       </c>
       <c r="V43" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>283.2948374677749</v>
@@ -25874,10 +25876,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
         <v>207.9784067573771</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -26077,19 +26079,19 @@
         <v>230.1151168515673</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>284.3089918374816</v>
       </c>
       <c r="V46" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>64.77357369160373</v>
       </c>
       <c r="X46" t="n">
-        <v>129.2677583094395</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>609170.9851315139</v>
+        <v>609170.9851315138</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>691684.4649152522</v>
+        <v>691684.4649152519</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>691684.4649152521</v>
+        <v>691684.4649152519</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>691684.4649152522</v>
+        <v>691684.4649152521</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>691684.4649152521</v>
+        <v>691684.4649152519</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>691684.4649152517</v>
+        <v>691684.4649152522</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>691684.4649152523</v>
+        <v>691684.4649152519</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>691684.4649152522</v>
+        <v>691684.4649152521</v>
       </c>
     </row>
   </sheetData>
@@ -26317,34 +26319,34 @@
         <v>188207.2044394288</v>
       </c>
       <c r="D2" t="n">
-        <v>188207.2044394288</v>
+        <v>188207.2044394289</v>
       </c>
       <c r="E2" t="n">
         <v>214591.0511962088</v>
       </c>
       <c r="F2" t="n">
-        <v>214591.0511962088</v>
+        <v>214591.0511962087</v>
       </c>
       <c r="G2" t="n">
-        <v>214591.0511962087</v>
+        <v>214591.0511962089</v>
       </c>
       <c r="H2" t="n">
         <v>214591.0511962088</v>
       </c>
       <c r="I2" t="n">
-        <v>214591.0511962089</v>
+        <v>214591.0511962088</v>
       </c>
       <c r="J2" t="n">
-        <v>214591.0511962089</v>
+        <v>214591.0511962088</v>
       </c>
       <c r="K2" t="n">
-        <v>214591.0511962089</v>
+        <v>214591.0511962087</v>
       </c>
       <c r="L2" t="n">
         <v>214591.0511962089</v>
       </c>
       <c r="M2" t="n">
-        <v>214591.0511962088</v>
+        <v>214591.0511962089</v>
       </c>
       <c r="N2" t="n">
         <v>214591.0511962088</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>137442.4307917772</v>
+        <v>137442.4307917771</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26457,7 +26459,7 @@
         <v>23150.42819261375</v>
       </c>
       <c r="P4" t="n">
-        <v>23150.42819261376</v>
+        <v>23150.42819261375</v>
       </c>
     </row>
     <row r="5">
@@ -26476,13 +26478,13 @@
         <v>65566.03463691141</v>
       </c>
       <c r="E5" t="n">
-        <v>40720.20246230468</v>
+        <v>40720.20246230467</v>
       </c>
       <c r="F5" t="n">
-        <v>40720.20246230468</v>
+        <v>40720.20246230466</v>
       </c>
       <c r="G5" t="n">
-        <v>40720.20246230468</v>
+        <v>40720.20246230467</v>
       </c>
       <c r="H5" t="n">
         <v>40720.20246230468</v>
@@ -26503,7 +26505,7 @@
         <v>40720.20246230468</v>
       </c>
       <c r="N5" t="n">
-        <v>40720.20246230468</v>
+        <v>40720.20246230469</v>
       </c>
       <c r="O5" t="n">
         <v>40720.20246230468</v>
@@ -26519,34 +26521,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-76207.34816875079</v>
+        <v>-76207.34816875076</v>
       </c>
       <c r="C6" t="n">
-        <v>99833.8365487766</v>
+        <v>99833.83654877657</v>
       </c>
       <c r="D6" t="n">
-        <v>99833.8365487766</v>
+        <v>99833.83654877663</v>
       </c>
       <c r="E6" t="n">
-        <v>41434.55389198921</v>
+        <v>41434.55389198932</v>
       </c>
       <c r="F6" t="n">
         <v>150720.4205412903</v>
       </c>
       <c r="G6" t="n">
+        <v>150720.4205412905</v>
+      </c>
+      <c r="H6" t="n">
         <v>150720.4205412903</v>
       </c>
-      <c r="H6" t="n">
-        <v>150720.4205412904</v>
-      </c>
       <c r="I6" t="n">
-        <v>150720.4205412905</v>
+        <v>150720.4205412903</v>
       </c>
       <c r="J6" t="n">
-        <v>13277.98974951331</v>
+        <v>13277.98974951322</v>
       </c>
       <c r="K6" t="n">
-        <v>150720.4205412905</v>
+        <v>150720.4205412903</v>
       </c>
       <c r="L6" t="n">
         <v>150720.4205412905</v>
@@ -26555,7 +26557,7 @@
         <v>123215.5838843939</v>
       </c>
       <c r="N6" t="n">
-        <v>150720.4205412904</v>
+        <v>150720.4205412903</v>
       </c>
       <c r="O6" t="n">
         <v>150720.4205412904</v>
@@ -26744,25 +26746,25 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>95.01032947988871</v>
+        <v>95.01032947988861</v>
       </c>
       <c r="F3" t="n">
-        <v>95.01032947988871</v>
+        <v>95.01032947988861</v>
       </c>
       <c r="G3" t="n">
-        <v>95.01032947988871</v>
+        <v>95.01032947988861</v>
       </c>
       <c r="H3" t="n">
-        <v>95.01032947988871</v>
+        <v>95.01032947988874</v>
       </c>
       <c r="I3" t="n">
-        <v>95.01032947988871</v>
+        <v>95.0103294798888</v>
       </c>
       <c r="J3" t="n">
-        <v>95.01032947988871</v>
+        <v>95.0103294798888</v>
       </c>
       <c r="K3" t="n">
-        <v>95.01032947988871</v>
+        <v>95.0103294798888</v>
       </c>
       <c r="L3" t="n">
         <v>95.01032947988871</v>
@@ -26793,16 +26795,16 @@
         <v>525.3032012649903</v>
       </c>
       <c r="D4" t="n">
-        <v>525.3032012649904</v>
+        <v>525.3032012649903</v>
       </c>
       <c r="E4" t="n">
-        <v>635.6739684151827</v>
+        <v>635.6739684151826</v>
       </c>
       <c r="F4" t="n">
-        <v>635.6739684151827</v>
+        <v>635.6739684151825</v>
       </c>
       <c r="G4" t="n">
-        <v>635.6739684151827</v>
+        <v>635.6739684151826</v>
       </c>
       <c r="H4" t="n">
         <v>635.6739684151827</v>
@@ -26823,7 +26825,7 @@
         <v>635.6739684151827</v>
       </c>
       <c r="N4" t="n">
-        <v>635.6739684151827</v>
+        <v>635.6739684151828</v>
       </c>
       <c r="O4" t="n">
         <v>635.6739684151827</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>95.01032947988871</v>
+        <v>95.01032947988861</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>525.3032012649904</v>
+        <v>525.3032012649903</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3819510732859845</v>
+        <v>0.3819510732859841</v>
       </c>
       <c r="H11" t="n">
-        <v>3.911656429290089</v>
+        <v>3.911656429290086</v>
       </c>
       <c r="I11" t="n">
-        <v>14.72516875285793</v>
+        <v>14.72516875285791</v>
       </c>
       <c r="J11" t="n">
-        <v>32.41761990630636</v>
+        <v>32.41761990630632</v>
       </c>
       <c r="K11" t="n">
-        <v>48.58560883850209</v>
+        <v>48.58560883850203</v>
       </c>
       <c r="L11" t="n">
-        <v>60.27474399757805</v>
+        <v>60.27474399757799</v>
       </c>
       <c r="M11" t="n">
-        <v>67.06726639712767</v>
+        <v>67.0672663971276</v>
       </c>
       <c r="N11" t="n">
-        <v>68.15248488410148</v>
+        <v>68.15248488410141</v>
       </c>
       <c r="O11" t="n">
-        <v>64.35445889911396</v>
+        <v>64.35445889911389</v>
       </c>
       <c r="P11" t="n">
-        <v>54.92504177736622</v>
+        <v>54.92504177736616</v>
       </c>
       <c r="Q11" t="n">
-        <v>41.24641896531188</v>
+        <v>41.24641896531184</v>
       </c>
       <c r="R11" t="n">
-        <v>23.99273410730074</v>
+        <v>23.99273410730072</v>
       </c>
       <c r="S11" t="n">
-        <v>8.703710082504379</v>
+        <v>8.703710082504371</v>
       </c>
       <c r="T11" t="n">
-        <v>1.671990823309398</v>
+        <v>1.671990823309396</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03055608586287875</v>
+        <v>0.03055608586287872</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2043618407680625</v>
+        <v>0.2043618407680623</v>
       </c>
       <c r="H12" t="n">
-        <v>1.973705146365236</v>
+        <v>1.973705146365234</v>
       </c>
       <c r="I12" t="n">
-        <v>7.036142324689872</v>
+        <v>7.036142324689865</v>
       </c>
       <c r="J12" t="n">
-        <v>19.30771233326682</v>
+        <v>19.3077123332668</v>
       </c>
       <c r="K12" t="n">
-        <v>32.99995566472701</v>
+        <v>32.99995566472698</v>
       </c>
       <c r="L12" t="n">
-        <v>44.37251283869708</v>
+        <v>44.37251283869704</v>
       </c>
       <c r="M12" t="n">
-        <v>51.78062956653934</v>
+        <v>51.78062956653929</v>
       </c>
       <c r="N12" t="n">
-        <v>53.1511087530936</v>
+        <v>53.15110875309354</v>
       </c>
       <c r="O12" t="n">
-        <v>48.62288059712758</v>
+        <v>48.62288059712753</v>
       </c>
       <c r="P12" t="n">
-        <v>39.02414834806977</v>
+        <v>39.02414834806972</v>
       </c>
       <c r="Q12" t="n">
-        <v>26.08660970927058</v>
+        <v>26.08660970927055</v>
       </c>
       <c r="R12" t="n">
-        <v>12.68836060488024</v>
+        <v>12.68836060488022</v>
       </c>
       <c r="S12" t="n">
-        <v>3.795931559880457</v>
+        <v>3.795931559880453</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8237216301133745</v>
+        <v>0.8237216301133736</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01344485794526728</v>
+        <v>0.01344485794526726</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1713301023407829</v>
+        <v>0.1713301023407827</v>
       </c>
       <c r="H13" t="n">
-        <v>1.523280364448053</v>
+        <v>1.523280364448051</v>
       </c>
       <c r="I13" t="n">
-        <v>5.152363441302819</v>
+        <v>5.152363441302813</v>
       </c>
       <c r="J13" t="n">
-        <v>12.11303823549335</v>
+        <v>12.11303823549334</v>
       </c>
       <c r="K13" t="n">
-        <v>19.90544279922914</v>
+        <v>19.90544279922912</v>
       </c>
       <c r="L13" t="n">
-        <v>25.47211357891967</v>
+        <v>25.47211357891965</v>
       </c>
       <c r="M13" t="n">
-        <v>26.85677231511017</v>
+        <v>26.85677231511015</v>
       </c>
       <c r="N13" t="n">
-        <v>26.21817829729455</v>
+        <v>26.21817829729452</v>
       </c>
       <c r="O13" t="n">
-        <v>24.21673119267722</v>
+        <v>24.21673119267719</v>
       </c>
       <c r="P13" t="n">
-        <v>20.72159710492523</v>
+        <v>20.72159710492521</v>
       </c>
       <c r="Q13" t="n">
-        <v>14.34655975146319</v>
+        <v>14.34655975146318</v>
       </c>
       <c r="R13" t="n">
-        <v>7.703624419795564</v>
+        <v>7.703624419795556</v>
       </c>
       <c r="S13" t="n">
-        <v>2.98581641988437</v>
+        <v>2.985816419884367</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7320468009106177</v>
+        <v>0.7320468009106169</v>
       </c>
       <c r="U13" t="n">
-        <v>0.00934527830949726</v>
+        <v>0.009345278309497251</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3819510732859845</v>
+        <v>0.3819510732859841</v>
       </c>
       <c r="H14" t="n">
-        <v>3.911656429290089</v>
+        <v>3.911656429290086</v>
       </c>
       <c r="I14" t="n">
-        <v>14.72516875285793</v>
+        <v>14.72516875285791</v>
       </c>
       <c r="J14" t="n">
-        <v>32.41761990630636</v>
+        <v>32.41761990630632</v>
       </c>
       <c r="K14" t="n">
-        <v>48.58560883850209</v>
+        <v>48.58560883850203</v>
       </c>
       <c r="L14" t="n">
-        <v>60.27474399757805</v>
+        <v>60.27474399757799</v>
       </c>
       <c r="M14" t="n">
-        <v>67.06726639712767</v>
+        <v>67.0672663971276</v>
       </c>
       <c r="N14" t="n">
-        <v>68.15248488410148</v>
+        <v>68.15248488410141</v>
       </c>
       <c r="O14" t="n">
-        <v>64.35445889911396</v>
+        <v>64.35445889911389</v>
       </c>
       <c r="P14" t="n">
-        <v>54.92504177736622</v>
+        <v>54.92504177736616</v>
       </c>
       <c r="Q14" t="n">
-        <v>41.24641896531188</v>
+        <v>41.24641896531184</v>
       </c>
       <c r="R14" t="n">
-        <v>23.99273410730074</v>
+        <v>23.99273410730072</v>
       </c>
       <c r="S14" t="n">
-        <v>8.703710082504379</v>
+        <v>8.703710082504371</v>
       </c>
       <c r="T14" t="n">
-        <v>1.671990823309398</v>
+        <v>1.671990823309396</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03055608586287875</v>
+        <v>0.03055608586287872</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2043618407680625</v>
+        <v>0.2043618407680623</v>
       </c>
       <c r="H15" t="n">
-        <v>1.973705146365236</v>
+        <v>1.973705146365234</v>
       </c>
       <c r="I15" t="n">
-        <v>7.036142324689872</v>
+        <v>7.036142324689865</v>
       </c>
       <c r="J15" t="n">
-        <v>19.30771233326682</v>
+        <v>19.3077123332668</v>
       </c>
       <c r="K15" t="n">
-        <v>32.99995566472701</v>
+        <v>32.99995566472698</v>
       </c>
       <c r="L15" t="n">
-        <v>44.37251283869708</v>
+        <v>44.37251283869704</v>
       </c>
       <c r="M15" t="n">
-        <v>51.78062956653934</v>
+        <v>51.78062956653929</v>
       </c>
       <c r="N15" t="n">
-        <v>53.1511087530936</v>
+        <v>53.15110875309354</v>
       </c>
       <c r="O15" t="n">
-        <v>48.62288059712758</v>
+        <v>48.62288059712753</v>
       </c>
       <c r="P15" t="n">
-        <v>39.02414834806977</v>
+        <v>39.02414834806972</v>
       </c>
       <c r="Q15" t="n">
-        <v>26.08660970927058</v>
+        <v>26.08660970927055</v>
       </c>
       <c r="R15" t="n">
-        <v>12.68836060488024</v>
+        <v>12.68836060488022</v>
       </c>
       <c r="S15" t="n">
-        <v>3.795931559880457</v>
+        <v>3.795931559880453</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8237216301133745</v>
+        <v>0.8237216301133736</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01344485794526728</v>
+        <v>0.01344485794526726</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1713301023407829</v>
+        <v>0.1713301023407827</v>
       </c>
       <c r="H16" t="n">
-        <v>1.523280364448053</v>
+        <v>1.523280364448051</v>
       </c>
       <c r="I16" t="n">
-        <v>5.152363441302819</v>
+        <v>5.152363441302813</v>
       </c>
       <c r="J16" t="n">
-        <v>12.11303823549335</v>
+        <v>12.11303823549334</v>
       </c>
       <c r="K16" t="n">
-        <v>19.90544279922914</v>
+        <v>19.90544279922912</v>
       </c>
       <c r="L16" t="n">
-        <v>25.47211357891967</v>
+        <v>25.47211357891965</v>
       </c>
       <c r="M16" t="n">
-        <v>26.85677231511017</v>
+        <v>26.85677231511015</v>
       </c>
       <c r="N16" t="n">
-        <v>26.21817829729455</v>
+        <v>26.21817829729452</v>
       </c>
       <c r="O16" t="n">
-        <v>24.21673119267722</v>
+        <v>24.21673119267719</v>
       </c>
       <c r="P16" t="n">
-        <v>20.72159710492523</v>
+        <v>20.72159710492521</v>
       </c>
       <c r="Q16" t="n">
-        <v>14.34655975146319</v>
+        <v>14.34655975146318</v>
       </c>
       <c r="R16" t="n">
-        <v>7.703624419795564</v>
+        <v>7.703624419795556</v>
       </c>
       <c r="S16" t="n">
-        <v>2.98581641988437</v>
+        <v>2.985816419884367</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7320468009106177</v>
+        <v>0.7320468009106169</v>
       </c>
       <c r="U16" t="n">
-        <v>0.00934527830949726</v>
+        <v>0.009345278309497251</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3819510732859845</v>
+        <v>0.3819510732859841</v>
       </c>
       <c r="H17" t="n">
-        <v>3.911656429290089</v>
+        <v>3.911656429290086</v>
       </c>
       <c r="I17" t="n">
-        <v>14.72516875285793</v>
+        <v>14.72516875285791</v>
       </c>
       <c r="J17" t="n">
-        <v>32.41761990630636</v>
+        <v>32.41761990630632</v>
       </c>
       <c r="K17" t="n">
-        <v>48.58560883850209</v>
+        <v>48.58560883850203</v>
       </c>
       <c r="L17" t="n">
-        <v>60.27474399757805</v>
+        <v>60.27474399757799</v>
       </c>
       <c r="M17" t="n">
-        <v>67.06726639712767</v>
+        <v>67.0672663971276</v>
       </c>
       <c r="N17" t="n">
-        <v>68.15248488410148</v>
+        <v>68.15248488410141</v>
       </c>
       <c r="O17" t="n">
-        <v>64.35445889911396</v>
+        <v>64.35445889911389</v>
       </c>
       <c r="P17" t="n">
-        <v>54.92504177736622</v>
+        <v>54.92504177736616</v>
       </c>
       <c r="Q17" t="n">
-        <v>41.24641896531188</v>
+        <v>41.24641896531184</v>
       </c>
       <c r="R17" t="n">
-        <v>23.99273410730074</v>
+        <v>23.99273410730072</v>
       </c>
       <c r="S17" t="n">
-        <v>8.703710082504379</v>
+        <v>8.703710082504371</v>
       </c>
       <c r="T17" t="n">
-        <v>1.671990823309398</v>
+        <v>1.671990823309396</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03055608586287875</v>
+        <v>0.03055608586287872</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2043618407680625</v>
+        <v>0.2043618407680623</v>
       </c>
       <c r="H18" t="n">
-        <v>1.973705146365236</v>
+        <v>1.973705146365234</v>
       </c>
       <c r="I18" t="n">
-        <v>7.036142324689872</v>
+        <v>7.036142324689865</v>
       </c>
       <c r="J18" t="n">
-        <v>19.30771233326682</v>
+        <v>19.3077123332668</v>
       </c>
       <c r="K18" t="n">
-        <v>32.99995566472701</v>
+        <v>32.99995566472698</v>
       </c>
       <c r="L18" t="n">
-        <v>44.37251283869708</v>
+        <v>44.37251283869704</v>
       </c>
       <c r="M18" t="n">
-        <v>51.78062956653934</v>
+        <v>51.78062956653929</v>
       </c>
       <c r="N18" t="n">
-        <v>53.1511087530936</v>
+        <v>53.15110875309354</v>
       </c>
       <c r="O18" t="n">
-        <v>48.62288059712758</v>
+        <v>48.62288059712753</v>
       </c>
       <c r="P18" t="n">
-        <v>39.02414834806977</v>
+        <v>39.02414834806972</v>
       </c>
       <c r="Q18" t="n">
-        <v>26.08660970927058</v>
+        <v>26.08660970927055</v>
       </c>
       <c r="R18" t="n">
-        <v>12.68836060488024</v>
+        <v>12.68836060488022</v>
       </c>
       <c r="S18" t="n">
-        <v>3.795931559880457</v>
+        <v>3.795931559880453</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8237216301133745</v>
+        <v>0.8237216301133736</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01344485794526728</v>
+        <v>0.01344485794526726</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1713301023407829</v>
+        <v>0.1713301023407827</v>
       </c>
       <c r="H19" t="n">
-        <v>1.523280364448053</v>
+        <v>1.523280364448051</v>
       </c>
       <c r="I19" t="n">
-        <v>5.152363441302819</v>
+        <v>5.152363441302813</v>
       </c>
       <c r="J19" t="n">
-        <v>12.11303823549335</v>
+        <v>12.11303823549334</v>
       </c>
       <c r="K19" t="n">
-        <v>19.90544279922914</v>
+        <v>19.90544279922912</v>
       </c>
       <c r="L19" t="n">
-        <v>25.47211357891967</v>
+        <v>25.47211357891965</v>
       </c>
       <c r="M19" t="n">
-        <v>26.85677231511017</v>
+        <v>26.85677231511015</v>
       </c>
       <c r="N19" t="n">
-        <v>26.21817829729455</v>
+        <v>26.21817829729452</v>
       </c>
       <c r="O19" t="n">
-        <v>24.21673119267722</v>
+        <v>24.21673119267719</v>
       </c>
       <c r="P19" t="n">
-        <v>20.72159710492523</v>
+        <v>20.72159710492521</v>
       </c>
       <c r="Q19" t="n">
-        <v>14.34655975146319</v>
+        <v>14.34655975146318</v>
       </c>
       <c r="R19" t="n">
-        <v>7.703624419795564</v>
+        <v>7.703624419795556</v>
       </c>
       <c r="S19" t="n">
-        <v>2.98581641988437</v>
+        <v>2.985816419884367</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7320468009106177</v>
+        <v>0.7320468009106169</v>
       </c>
       <c r="U19" t="n">
-        <v>0.00934527830949726</v>
+        <v>0.009345278309497251</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3819510732859845</v>
+        <v>0.3819510732859846</v>
       </c>
       <c r="H20" t="n">
-        <v>3.911656429290089</v>
+        <v>3.911656429290091</v>
       </c>
       <c r="I20" t="n">
-        <v>14.72516875285793</v>
+        <v>14.72516875285794</v>
       </c>
       <c r="J20" t="n">
         <v>32.41761990630636</v>
       </c>
       <c r="K20" t="n">
-        <v>48.58560883850209</v>
+        <v>48.5856088385021</v>
       </c>
       <c r="L20" t="n">
-        <v>60.27474399757805</v>
+        <v>60.27474399757806</v>
       </c>
       <c r="M20" t="n">
-        <v>67.06726639712767</v>
+        <v>67.0672663971277</v>
       </c>
       <c r="N20" t="n">
-        <v>68.15248488410148</v>
+        <v>68.1524848841015</v>
       </c>
       <c r="O20" t="n">
-        <v>64.35445889911396</v>
+        <v>64.35445889911399</v>
       </c>
       <c r="P20" t="n">
-        <v>54.92504177736622</v>
+        <v>54.92504177736623</v>
       </c>
       <c r="Q20" t="n">
-        <v>41.24641896531188</v>
+        <v>41.2464189653119</v>
       </c>
       <c r="R20" t="n">
-        <v>23.99273410730074</v>
+        <v>23.99273410730075</v>
       </c>
       <c r="S20" t="n">
-        <v>8.703710082504379</v>
+        <v>8.703710082504383</v>
       </c>
       <c r="T20" t="n">
         <v>1.671990823309398</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03055608586287875</v>
+        <v>0.03055608586287876</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2043618407680625</v>
+        <v>0.2043618407680626</v>
       </c>
       <c r="H21" t="n">
         <v>1.973705146365236</v>
       </c>
       <c r="I21" t="n">
-        <v>7.036142324689872</v>
+        <v>7.036142324689875</v>
       </c>
       <c r="J21" t="n">
-        <v>19.30771233326682</v>
+        <v>19.30771233326683</v>
       </c>
       <c r="K21" t="n">
-        <v>32.99995566472701</v>
+        <v>32.99995566472702</v>
       </c>
       <c r="L21" t="n">
-        <v>44.37251283869708</v>
+        <v>44.3725128386971</v>
       </c>
       <c r="M21" t="n">
-        <v>51.78062956653934</v>
+        <v>51.78062956653935</v>
       </c>
       <c r="N21" t="n">
-        <v>53.1511087530936</v>
+        <v>53.15110875309361</v>
       </c>
       <c r="O21" t="n">
-        <v>48.62288059712758</v>
+        <v>48.62288059712759</v>
       </c>
       <c r="P21" t="n">
-        <v>39.02414834806977</v>
+        <v>39.02414834806978</v>
       </c>
       <c r="Q21" t="n">
-        <v>26.08660970927058</v>
+        <v>26.08660970927059</v>
       </c>
       <c r="R21" t="n">
         <v>12.68836060488024</v>
       </c>
       <c r="S21" t="n">
-        <v>3.795931559880457</v>
+        <v>3.795931559880458</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8237216301133745</v>
+        <v>0.8237216301133747</v>
       </c>
       <c r="U21" t="n">
         <v>0.01344485794526728</v>
@@ -32625,7 +32627,7 @@
         <v>1.523280364448053</v>
       </c>
       <c r="I22" t="n">
-        <v>5.152363441302819</v>
+        <v>5.15236344130282</v>
       </c>
       <c r="J22" t="n">
         <v>12.11303823549335</v>
@@ -32634,13 +32636,13 @@
         <v>19.90544279922914</v>
       </c>
       <c r="L22" t="n">
-        <v>25.47211357891967</v>
+        <v>25.47211357891968</v>
       </c>
       <c r="M22" t="n">
-        <v>26.85677231511017</v>
+        <v>26.85677231511018</v>
       </c>
       <c r="N22" t="n">
-        <v>26.21817829729455</v>
+        <v>26.21817829729456</v>
       </c>
       <c r="O22" t="n">
         <v>24.21673119267722</v>
@@ -32649,19 +32651,19 @@
         <v>20.72159710492523</v>
       </c>
       <c r="Q22" t="n">
-        <v>14.34655975146319</v>
+        <v>14.3465597514632</v>
       </c>
       <c r="R22" t="n">
-        <v>7.703624419795564</v>
+        <v>7.703624419795566</v>
       </c>
       <c r="S22" t="n">
-        <v>2.98581641988437</v>
+        <v>2.985816419884371</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7320468009106177</v>
+        <v>0.7320468009106179</v>
       </c>
       <c r="U22" t="n">
-        <v>0.00934527830949726</v>
+        <v>0.009345278309497263</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3819510732859845</v>
+        <v>0.3819510732859848</v>
       </c>
       <c r="H23" t="n">
-        <v>3.911656429290089</v>
+        <v>3.911656429290093</v>
       </c>
       <c r="I23" t="n">
-        <v>14.72516875285793</v>
+        <v>14.72516875285794</v>
       </c>
       <c r="J23" t="n">
-        <v>32.41761990630636</v>
+        <v>32.41761990630638</v>
       </c>
       <c r="K23" t="n">
-        <v>48.58560883850209</v>
+        <v>48.58560883850213</v>
       </c>
       <c r="L23" t="n">
-        <v>60.27474399757805</v>
+        <v>60.2747439975781</v>
       </c>
       <c r="M23" t="n">
-        <v>67.06726639712767</v>
+        <v>67.06726639712772</v>
       </c>
       <c r="N23" t="n">
-        <v>68.15248488410148</v>
+        <v>68.15248488410154</v>
       </c>
       <c r="O23" t="n">
-        <v>64.35445889911396</v>
+        <v>64.35445889911402</v>
       </c>
       <c r="P23" t="n">
-        <v>54.92504177736622</v>
+        <v>54.92504177736627</v>
       </c>
       <c r="Q23" t="n">
-        <v>41.24641896531188</v>
+        <v>41.24641896531192</v>
       </c>
       <c r="R23" t="n">
-        <v>23.99273410730074</v>
+        <v>23.99273410730077</v>
       </c>
       <c r="S23" t="n">
-        <v>8.703710082504379</v>
+        <v>8.703710082504388</v>
       </c>
       <c r="T23" t="n">
-        <v>1.671990823309398</v>
+        <v>1.671990823309399</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03055608586287875</v>
+        <v>0.03055608586287878</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2043618407680625</v>
+        <v>0.2043618407680627</v>
       </c>
       <c r="H24" t="n">
-        <v>1.973705146365236</v>
+        <v>1.973705146365238</v>
       </c>
       <c r="I24" t="n">
-        <v>7.036142324689872</v>
+        <v>7.036142324689879</v>
       </c>
       <c r="J24" t="n">
-        <v>19.30771233326682</v>
+        <v>19.30771233326684</v>
       </c>
       <c r="K24" t="n">
-        <v>32.99995566472701</v>
+        <v>32.99995566472704</v>
       </c>
       <c r="L24" t="n">
-        <v>44.37251283869708</v>
+        <v>44.37251283869713</v>
       </c>
       <c r="M24" t="n">
-        <v>51.78062956653934</v>
+        <v>51.78062956653939</v>
       </c>
       <c r="N24" t="n">
-        <v>53.1511087530936</v>
+        <v>53.15110875309365</v>
       </c>
       <c r="O24" t="n">
-        <v>48.62288059712758</v>
+        <v>48.62288059712762</v>
       </c>
       <c r="P24" t="n">
-        <v>39.02414834806977</v>
+        <v>39.0241483480698</v>
       </c>
       <c r="Q24" t="n">
-        <v>26.08660970927058</v>
+        <v>26.0866097092706</v>
       </c>
       <c r="R24" t="n">
-        <v>12.68836060488024</v>
+        <v>12.68836060488025</v>
       </c>
       <c r="S24" t="n">
-        <v>3.795931559880457</v>
+        <v>3.79593155988046</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8237216301133745</v>
+        <v>0.8237216301133752</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01344485794526728</v>
+        <v>0.01344485794526729</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1713301023407829</v>
+        <v>0.1713301023407831</v>
       </c>
       <c r="H25" t="n">
-        <v>1.523280364448053</v>
+        <v>1.523280364448054</v>
       </c>
       <c r="I25" t="n">
-        <v>5.152363441302819</v>
+        <v>5.152363441302823</v>
       </c>
       <c r="J25" t="n">
-        <v>12.11303823549335</v>
+        <v>12.11303823549336</v>
       </c>
       <c r="K25" t="n">
-        <v>19.90544279922914</v>
+        <v>19.90544279922915</v>
       </c>
       <c r="L25" t="n">
-        <v>25.47211357891967</v>
+        <v>25.4721135789197</v>
       </c>
       <c r="M25" t="n">
-        <v>26.85677231511017</v>
+        <v>26.8567723151102</v>
       </c>
       <c r="N25" t="n">
-        <v>26.21817829729455</v>
+        <v>26.21817829729457</v>
       </c>
       <c r="O25" t="n">
-        <v>24.21673119267722</v>
+        <v>24.21673119267724</v>
       </c>
       <c r="P25" t="n">
-        <v>20.72159710492523</v>
+        <v>20.72159710492524</v>
       </c>
       <c r="Q25" t="n">
-        <v>14.34655975146319</v>
+        <v>14.34655975146321</v>
       </c>
       <c r="R25" t="n">
-        <v>7.703624419795564</v>
+        <v>7.70362441979557</v>
       </c>
       <c r="S25" t="n">
-        <v>2.98581641988437</v>
+        <v>2.985816419884373</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7320468009106177</v>
+        <v>0.7320468009106184</v>
       </c>
       <c r="U25" t="n">
-        <v>0.00934527830949726</v>
+        <v>0.009345278309497268</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3819510732859845</v>
+        <v>0.3819510732859848</v>
       </c>
       <c r="H26" t="n">
-        <v>3.911656429290089</v>
+        <v>3.911656429290093</v>
       </c>
       <c r="I26" t="n">
-        <v>14.72516875285793</v>
+        <v>14.72516875285794</v>
       </c>
       <c r="J26" t="n">
-        <v>32.41761990630636</v>
+        <v>32.41761990630638</v>
       </c>
       <c r="K26" t="n">
-        <v>48.58560883850209</v>
+        <v>48.58560883850213</v>
       </c>
       <c r="L26" t="n">
-        <v>60.27474399757805</v>
+        <v>60.2747439975781</v>
       </c>
       <c r="M26" t="n">
-        <v>67.06726639712767</v>
+        <v>67.06726639712772</v>
       </c>
       <c r="N26" t="n">
-        <v>68.15248488410148</v>
+        <v>68.15248488410154</v>
       </c>
       <c r="O26" t="n">
-        <v>64.35445889911396</v>
+        <v>64.35445889911402</v>
       </c>
       <c r="P26" t="n">
-        <v>54.92504177736622</v>
+        <v>54.92504177736627</v>
       </c>
       <c r="Q26" t="n">
-        <v>41.24641896531188</v>
+        <v>41.24641896531192</v>
       </c>
       <c r="R26" t="n">
-        <v>23.99273410730074</v>
+        <v>23.99273410730077</v>
       </c>
       <c r="S26" t="n">
-        <v>8.703710082504379</v>
+        <v>8.703710082504388</v>
       </c>
       <c r="T26" t="n">
-        <v>1.671990823309398</v>
+        <v>1.671990823309399</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03055608586287875</v>
+        <v>0.03055608586287878</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2043618407680625</v>
+        <v>0.2043618407680627</v>
       </c>
       <c r="H27" t="n">
-        <v>1.973705146365236</v>
+        <v>1.973705146365238</v>
       </c>
       <c r="I27" t="n">
-        <v>7.036142324689872</v>
+        <v>7.036142324689879</v>
       </c>
       <c r="J27" t="n">
-        <v>19.30771233326682</v>
+        <v>19.30771233326684</v>
       </c>
       <c r="K27" t="n">
-        <v>32.99995566472701</v>
+        <v>32.99995566472704</v>
       </c>
       <c r="L27" t="n">
-        <v>44.37251283869708</v>
+        <v>44.37251283869713</v>
       </c>
       <c r="M27" t="n">
-        <v>51.78062956653934</v>
+        <v>51.78062956653939</v>
       </c>
       <c r="N27" t="n">
-        <v>53.1511087530936</v>
+        <v>53.15110875309365</v>
       </c>
       <c r="O27" t="n">
-        <v>48.62288059712758</v>
+        <v>48.62288059712762</v>
       </c>
       <c r="P27" t="n">
-        <v>39.02414834806977</v>
+        <v>39.0241483480698</v>
       </c>
       <c r="Q27" t="n">
-        <v>26.08660970927058</v>
+        <v>26.0866097092706</v>
       </c>
       <c r="R27" t="n">
-        <v>12.68836060488024</v>
+        <v>12.68836060488025</v>
       </c>
       <c r="S27" t="n">
-        <v>3.795931559880457</v>
+        <v>3.79593155988046</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8237216301133745</v>
+        <v>0.8237216301133752</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01344485794526728</v>
+        <v>0.01344485794526729</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1713301023407829</v>
+        <v>0.1713301023407831</v>
       </c>
       <c r="H28" t="n">
-        <v>1.523280364448053</v>
+        <v>1.523280364448054</v>
       </c>
       <c r="I28" t="n">
-        <v>5.152363441302819</v>
+        <v>5.152363441302823</v>
       </c>
       <c r="J28" t="n">
-        <v>12.11303823549335</v>
+        <v>12.11303823549336</v>
       </c>
       <c r="K28" t="n">
-        <v>19.90544279922914</v>
+        <v>19.90544279922915</v>
       </c>
       <c r="L28" t="n">
-        <v>25.47211357891967</v>
+        <v>25.4721135789197</v>
       </c>
       <c r="M28" t="n">
-        <v>26.85677231511017</v>
+        <v>26.8567723151102</v>
       </c>
       <c r="N28" t="n">
-        <v>26.21817829729455</v>
+        <v>26.21817829729457</v>
       </c>
       <c r="O28" t="n">
-        <v>24.21673119267722</v>
+        <v>24.21673119267724</v>
       </c>
       <c r="P28" t="n">
-        <v>20.72159710492523</v>
+        <v>20.72159710492524</v>
       </c>
       <c r="Q28" t="n">
-        <v>14.34655975146319</v>
+        <v>14.34655975146321</v>
       </c>
       <c r="R28" t="n">
-        <v>7.703624419795564</v>
+        <v>7.70362441979557</v>
       </c>
       <c r="S28" t="n">
-        <v>2.98581641988437</v>
+        <v>2.985816419884373</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7320468009106177</v>
+        <v>0.7320468009106184</v>
       </c>
       <c r="U28" t="n">
-        <v>0.00934527830949726</v>
+        <v>0.009345278309497268</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.3819510732859845</v>
+        <v>0.3819510732859848</v>
       </c>
       <c r="H29" t="n">
-        <v>3.911656429290089</v>
+        <v>3.911656429290093</v>
       </c>
       <c r="I29" t="n">
-        <v>14.72516875285793</v>
+        <v>14.72516875285794</v>
       </c>
       <c r="J29" t="n">
-        <v>32.41761990630636</v>
+        <v>32.41761990630638</v>
       </c>
       <c r="K29" t="n">
-        <v>48.58560883850209</v>
+        <v>48.58560883850213</v>
       </c>
       <c r="L29" t="n">
-        <v>60.27474399757805</v>
+        <v>60.2747439975781</v>
       </c>
       <c r="M29" t="n">
-        <v>67.06726639712767</v>
+        <v>67.06726639712772</v>
       </c>
       <c r="N29" t="n">
-        <v>68.15248488410148</v>
+        <v>68.15248488410154</v>
       </c>
       <c r="O29" t="n">
-        <v>64.35445889911396</v>
+        <v>64.35445889911402</v>
       </c>
       <c r="P29" t="n">
-        <v>54.92504177736622</v>
+        <v>54.92504177736627</v>
       </c>
       <c r="Q29" t="n">
-        <v>41.24641896531188</v>
+        <v>41.24641896531192</v>
       </c>
       <c r="R29" t="n">
-        <v>23.99273410730074</v>
+        <v>23.99273410730077</v>
       </c>
       <c r="S29" t="n">
-        <v>8.703710082504379</v>
+        <v>8.703710082504388</v>
       </c>
       <c r="T29" t="n">
-        <v>1.671990823309398</v>
+        <v>1.671990823309399</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03055608586287875</v>
+        <v>0.03055608586287878</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2043618407680625</v>
+        <v>0.2043618407680627</v>
       </c>
       <c r="H30" t="n">
-        <v>1.973705146365236</v>
+        <v>1.973705146365238</v>
       </c>
       <c r="I30" t="n">
-        <v>7.036142324689872</v>
+        <v>7.036142324689879</v>
       </c>
       <c r="J30" t="n">
-        <v>19.30771233326682</v>
+        <v>19.30771233326684</v>
       </c>
       <c r="K30" t="n">
-        <v>32.99995566472701</v>
+        <v>32.99995566472704</v>
       </c>
       <c r="L30" t="n">
-        <v>44.37251283869708</v>
+        <v>44.37251283869713</v>
       </c>
       <c r="M30" t="n">
-        <v>51.78062956653934</v>
+        <v>51.78062956653939</v>
       </c>
       <c r="N30" t="n">
-        <v>53.1511087530936</v>
+        <v>53.15110875309365</v>
       </c>
       <c r="O30" t="n">
-        <v>48.62288059712758</v>
+        <v>48.62288059712762</v>
       </c>
       <c r="P30" t="n">
-        <v>39.02414834806977</v>
+        <v>39.0241483480698</v>
       </c>
       <c r="Q30" t="n">
-        <v>26.08660970927058</v>
+        <v>26.0866097092706</v>
       </c>
       <c r="R30" t="n">
-        <v>12.68836060488024</v>
+        <v>12.68836060488025</v>
       </c>
       <c r="S30" t="n">
-        <v>3.795931559880457</v>
+        <v>3.79593155988046</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8237216301133745</v>
+        <v>0.8237216301133752</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01344485794526728</v>
+        <v>0.01344485794526729</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1713301023407829</v>
+        <v>0.1713301023407831</v>
       </c>
       <c r="H31" t="n">
-        <v>1.523280364448053</v>
+        <v>1.523280364448054</v>
       </c>
       <c r="I31" t="n">
-        <v>5.152363441302819</v>
+        <v>5.152363441302823</v>
       </c>
       <c r="J31" t="n">
-        <v>12.11303823549335</v>
+        <v>12.11303823549336</v>
       </c>
       <c r="K31" t="n">
-        <v>19.90544279922914</v>
+        <v>19.90544279922915</v>
       </c>
       <c r="L31" t="n">
-        <v>25.47211357891967</v>
+        <v>25.4721135789197</v>
       </c>
       <c r="M31" t="n">
-        <v>26.85677231511017</v>
+        <v>26.8567723151102</v>
       </c>
       <c r="N31" t="n">
-        <v>26.21817829729455</v>
+        <v>26.21817829729457</v>
       </c>
       <c r="O31" t="n">
-        <v>24.21673119267722</v>
+        <v>24.21673119267724</v>
       </c>
       <c r="P31" t="n">
-        <v>20.72159710492523</v>
+        <v>20.72159710492524</v>
       </c>
       <c r="Q31" t="n">
-        <v>14.34655975146319</v>
+        <v>14.34655975146321</v>
       </c>
       <c r="R31" t="n">
-        <v>7.703624419795564</v>
+        <v>7.70362441979557</v>
       </c>
       <c r="S31" t="n">
-        <v>2.98581641988437</v>
+        <v>2.985816419884373</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7320468009106177</v>
+        <v>0.7320468009106184</v>
       </c>
       <c r="U31" t="n">
-        <v>0.00934527830949726</v>
+        <v>0.009345278309497268</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34781,10 +34783,10 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L3" t="n">
-        <v>369.5170153233491</v>
+        <v>79.64543451744507</v>
       </c>
       <c r="M3" t="n">
-        <v>40.69581689574456</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N3" t="n">
         <v>516.4299455789112</v>
@@ -34796,7 +34798,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K6" t="n">
         <v>231.8086389496855</v>
@@ -35024,10 +35026,10 @@
         <v>489.93268031336</v>
       </c>
       <c r="N6" t="n">
-        <v>287.421139048872</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O6" t="n">
-        <v>396.1615664486372</v>
+        <v>106.2899856427332</v>
       </c>
       <c r="P6" t="n">
         <v>305.147393207775</v>
@@ -35261,7 +35263,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N9" t="n">
-        <v>287.4211390488725</v>
+        <v>287.421139048872</v>
       </c>
       <c r="O9" t="n">
         <v>396.1615664486372</v>
@@ -35416,16 +35418,16 @@
         <v>411.674110750049</v>
       </c>
       <c r="M11" t="n">
-        <v>464.2785454406509</v>
+        <v>464.2785454406508</v>
       </c>
       <c r="N11" t="n">
-        <v>450.3053724474507</v>
+        <v>450.3053724474506</v>
       </c>
       <c r="O11" t="n">
-        <v>372.4398977605624</v>
+        <v>372.4398977605623</v>
       </c>
       <c r="P11" t="n">
-        <v>285.3865533491372</v>
+        <v>285.3865533491371</v>
       </c>
       <c r="Q11" t="n">
         <v>136.6325338001977</v>
@@ -35489,13 +35491,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.8085946144125</v>
+        <v>17.42030366054503</v>
       </c>
       <c r="L12" t="n">
         <v>413.8895281620462</v>
       </c>
       <c r="M12" t="n">
-        <v>541.7133098798994</v>
+        <v>541.7133098798993</v>
       </c>
       <c r="N12" t="n">
         <v>569.5810543320048</v>
@@ -35504,10 +35506,10 @@
         <v>444.7844470457648</v>
       </c>
       <c r="P12" t="n">
-        <v>282.2351429229594</v>
+        <v>344.1715415558447</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>185.4518923209819</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>53.84906678371743</v>
+        <v>53.84906678371742</v>
       </c>
       <c r="L13" t="n">
         <v>127.0954261044343</v>
@@ -35583,7 +35585,7 @@
         <v>123.6749599762021</v>
       </c>
       <c r="P13" t="n">
-        <v>84.32612612324623</v>
+        <v>84.32612612324621</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35653,16 +35655,16 @@
         <v>411.674110750049</v>
       </c>
       <c r="M14" t="n">
-        <v>464.2785454406509</v>
+        <v>464.2785454406508</v>
       </c>
       <c r="N14" t="n">
-        <v>450.3053724474507</v>
+        <v>450.3053724474506</v>
       </c>
       <c r="O14" t="n">
-        <v>372.4398977605624</v>
+        <v>372.4398977605623</v>
       </c>
       <c r="P14" t="n">
-        <v>285.3865533491372</v>
+        <v>285.3865533491371</v>
       </c>
       <c r="Q14" t="n">
         <v>136.6325338001977</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>80.17048660913161</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.8085946144125</v>
+        <v>202.8721959815264</v>
       </c>
       <c r="L15" t="n">
         <v>413.8895281620462</v>
       </c>
       <c r="M15" t="n">
-        <v>541.7133098798994</v>
+        <v>541.7133098798993</v>
       </c>
       <c r="N15" t="n">
-        <v>242.0222767690058</v>
+        <v>569.5810543320048</v>
       </c>
       <c r="O15" t="n">
         <v>444.7844470457648</v>
       </c>
       <c r="P15" t="n">
-        <v>344.1715415558448</v>
+        <v>344.1715415558447</v>
       </c>
       <c r="Q15" t="n">
-        <v>185.4518923209819</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>53.84906678371743</v>
+        <v>53.84906678371742</v>
       </c>
       <c r="L16" t="n">
         <v>127.0954261044343</v>
@@ -35820,7 +35822,7 @@
         <v>123.6749599762021</v>
       </c>
       <c r="P16" t="n">
-        <v>84.32612612324623</v>
+        <v>84.32612612324621</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35890,16 +35892,16 @@
         <v>411.674110750049</v>
       </c>
       <c r="M17" t="n">
-        <v>464.2785454406509</v>
+        <v>464.2785454406508</v>
       </c>
       <c r="N17" t="n">
-        <v>450.3053724474507</v>
+        <v>450.3053724474506</v>
       </c>
       <c r="O17" t="n">
-        <v>372.4398977605624</v>
+        <v>372.4398977605623</v>
       </c>
       <c r="P17" t="n">
-        <v>285.3865533491372</v>
+        <v>285.3865533491371</v>
       </c>
       <c r="Q17" t="n">
         <v>136.6325338001977</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>80.17048660913161</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.8085946144125</v>
+        <v>202.8721959815269</v>
       </c>
       <c r="L18" t="n">
         <v>413.8895281620462</v>
       </c>
       <c r="M18" t="n">
-        <v>541.7133098798994</v>
+        <v>541.7133098798993</v>
       </c>
       <c r="N18" t="n">
         <v>569.5810543320048</v>
       </c>
       <c r="O18" t="n">
-        <v>117.2256694827656</v>
+        <v>444.7844470457648</v>
       </c>
       <c r="P18" t="n">
-        <v>344.1715415558448</v>
+        <v>344.1715415558447</v>
       </c>
       <c r="Q18" t="n">
-        <v>185.4518923209819</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>53.84906678371743</v>
+        <v>53.84906678371742</v>
       </c>
       <c r="L19" t="n">
         <v>127.0954261044343</v>
@@ -36057,7 +36059,7 @@
         <v>123.6749599762021</v>
       </c>
       <c r="P19" t="n">
-        <v>84.32612612324623</v>
+        <v>84.32612612324621</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36139,7 +36141,7 @@
         <v>285.3865533491372</v>
       </c>
       <c r="Q20" t="n">
-        <v>136.6325338001977</v>
+        <v>136.6325338001978</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>80.17048660913161</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.8085946144125</v>
+        <v>202.8721959815271</v>
       </c>
       <c r="L21" t="n">
         <v>413.8895281620462</v>
       </c>
       <c r="M21" t="n">
-        <v>214.1545323168998</v>
+        <v>541.7133098798994</v>
       </c>
       <c r="N21" t="n">
         <v>569.5810543320048</v>
       </c>
       <c r="O21" t="n">
-        <v>444.7844470457648</v>
+        <v>444.7844470457649</v>
       </c>
       <c r="P21" t="n">
         <v>344.1715415558448</v>
       </c>
       <c r="Q21" t="n">
-        <v>185.4518923209819</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>53.84906678371743</v>
+        <v>53.84906678371744</v>
       </c>
       <c r="L22" t="n">
         <v>127.0954261044343</v>
@@ -36291,10 +36293,10 @@
         <v>145.8367053170929</v>
       </c>
       <c r="O22" t="n">
-        <v>123.6749599762021</v>
+        <v>123.6749599762022</v>
       </c>
       <c r="P22" t="n">
-        <v>84.32612612324623</v>
+        <v>84.32612612324624</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>105.1434222020696</v>
+        <v>105.1434222020697</v>
       </c>
       <c r="K23" t="n">
         <v>291.1516412069695</v>
       </c>
       <c r="L23" t="n">
-        <v>411.674110750049</v>
+        <v>411.6741107500491</v>
       </c>
       <c r="M23" t="n">
         <v>464.2785454406509</v>
@@ -36370,13 +36372,13 @@
         <v>450.3053724474507</v>
       </c>
       <c r="O23" t="n">
-        <v>372.4398977605624</v>
+        <v>372.4398977605625</v>
       </c>
       <c r="P23" t="n">
         <v>285.3865533491372</v>
       </c>
       <c r="Q23" t="n">
-        <v>136.6325338001977</v>
+        <v>136.6325338001978</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>80.17048660913161</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>122.7017093723955</v>
+        <v>264.8085946144126</v>
       </c>
       <c r="L24" t="n">
         <v>413.8895281620462</v>
@@ -36446,10 +36448,10 @@
         <v>541.7133098798994</v>
       </c>
       <c r="N24" t="n">
-        <v>569.5810543320048</v>
+        <v>507.6446556991193</v>
       </c>
       <c r="O24" t="n">
-        <v>444.7844470457648</v>
+        <v>444.7844470457649</v>
       </c>
       <c r="P24" t="n">
         <v>344.1715415558448</v>
@@ -36516,10 +36518,10 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>53.84906678371743</v>
+        <v>53.84906678371745</v>
       </c>
       <c r="L25" t="n">
-        <v>127.0954261044343</v>
+        <v>127.0954261044344</v>
       </c>
       <c r="M25" t="n">
         <v>146.0421320399604</v>
@@ -36528,10 +36530,10 @@
         <v>145.8367053170929</v>
       </c>
       <c r="O25" t="n">
-        <v>123.6749599762021</v>
+        <v>123.6749599762022</v>
       </c>
       <c r="P25" t="n">
-        <v>84.32612612324623</v>
+        <v>84.32612612324624</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36592,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>105.1434222020696</v>
+        <v>105.1434222020697</v>
       </c>
       <c r="K26" t="n">
         <v>291.1516412069695</v>
       </c>
       <c r="L26" t="n">
-        <v>411.674110750049</v>
+        <v>411.6741107500491</v>
       </c>
       <c r="M26" t="n">
         <v>464.2785454406509</v>
@@ -36607,13 +36609,13 @@
         <v>450.3053724474507</v>
       </c>
       <c r="O26" t="n">
-        <v>372.4398977605624</v>
+        <v>372.4398977605625</v>
       </c>
       <c r="P26" t="n">
         <v>285.3865533491372</v>
       </c>
       <c r="Q26" t="n">
-        <v>136.6325338001977</v>
+        <v>136.6325338001978</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36671,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>80.17048660913163</v>
       </c>
       <c r="K27" t="n">
-        <v>17.42030366054508</v>
+        <v>122.7017093723955</v>
       </c>
       <c r="L27" t="n">
         <v>413.8895281620462</v>
@@ -36683,16 +36685,16 @@
         <v>541.7133098798994</v>
       </c>
       <c r="N27" t="n">
-        <v>569.5810543320048</v>
+        <v>569.5810543320049</v>
       </c>
       <c r="O27" t="n">
-        <v>444.7844470457648</v>
+        <v>444.7844470457649</v>
       </c>
       <c r="P27" t="n">
         <v>344.1715415558448</v>
       </c>
       <c r="Q27" t="n">
-        <v>185.4518923209819</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,10 +36755,10 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>53.84906678371743</v>
+        <v>53.84906678371745</v>
       </c>
       <c r="L28" t="n">
-        <v>127.0954261044343</v>
+        <v>127.0954261044344</v>
       </c>
       <c r="M28" t="n">
         <v>146.0421320399604</v>
@@ -36765,10 +36767,10 @@
         <v>145.8367053170929</v>
       </c>
       <c r="O28" t="n">
-        <v>123.6749599762021</v>
+        <v>123.6749599762022</v>
       </c>
       <c r="P28" t="n">
-        <v>84.32612612324623</v>
+        <v>84.32612612324624</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36829,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>105.1434222020696</v>
+        <v>105.1434222020697</v>
       </c>
       <c r="K29" t="n">
         <v>291.1516412069695</v>
       </c>
       <c r="L29" t="n">
-        <v>411.674110750049</v>
+        <v>411.6741107500491</v>
       </c>
       <c r="M29" t="n">
         <v>464.2785454406509</v>
@@ -36844,13 +36846,13 @@
         <v>450.3053724474507</v>
       </c>
       <c r="O29" t="n">
-        <v>372.4398977605624</v>
+        <v>372.4398977605625</v>
       </c>
       <c r="P29" t="n">
         <v>285.3865533491372</v>
       </c>
       <c r="Q29" t="n">
-        <v>136.6325338001977</v>
+        <v>136.6325338001976</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36911,19 +36913,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>202.8721959815271</v>
+        <v>264.8085946144126</v>
       </c>
       <c r="L30" t="n">
         <v>413.8895281620462</v>
       </c>
       <c r="M30" t="n">
-        <v>541.7133098798994</v>
+        <v>479.7769112470134</v>
       </c>
       <c r="N30" t="n">
-        <v>569.5810543320048</v>
+        <v>569.5810543320049</v>
       </c>
       <c r="O30" t="n">
-        <v>444.7844470457648</v>
+        <v>444.7844470457649</v>
       </c>
       <c r="P30" t="n">
         <v>344.1715415558448</v>
@@ -36990,10 +36992,10 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>53.84906678371743</v>
+        <v>53.84906678371745</v>
       </c>
       <c r="L31" t="n">
-        <v>127.0954261044343</v>
+        <v>127.0954261044344</v>
       </c>
       <c r="M31" t="n">
         <v>146.0421320399604</v>
@@ -37002,10 +37004,10 @@
         <v>145.8367053170929</v>
       </c>
       <c r="O31" t="n">
-        <v>123.6749599762021</v>
+        <v>123.6749599762022</v>
       </c>
       <c r="P31" t="n">
-        <v>84.32612612324623</v>
+        <v>84.32612612324624</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37145,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>80.17048660913161</v>
       </c>
       <c r="K33" t="n">
-        <v>17.42030366054508</v>
+        <v>264.8085946144125</v>
       </c>
       <c r="L33" t="n">
         <v>413.8895281620462</v>
@@ -37163,10 +37165,10 @@
         <v>444.7844470457648</v>
       </c>
       <c r="P33" t="n">
-        <v>344.1715415558448</v>
+        <v>202.0646563138277</v>
       </c>
       <c r="Q33" t="n">
-        <v>185.4518923209819</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,7 +37387,7 @@
         <v>80.17048660913161</v>
       </c>
       <c r="K36" t="n">
-        <v>264.8085946144125</v>
+        <v>122.7017093723951</v>
       </c>
       <c r="L36" t="n">
         <v>413.8895281620462</v>
@@ -37394,7 +37396,7 @@
         <v>541.7133098798994</v>
       </c>
       <c r="N36" t="n">
-        <v>242.0222767690058</v>
+        <v>569.5810543320048</v>
       </c>
       <c r="O36" t="n">
         <v>444.7844470457648</v>
@@ -37403,7 +37405,7 @@
         <v>344.1715415558448</v>
       </c>
       <c r="Q36" t="n">
-        <v>185.4518923209819</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37625,7 +37627,7 @@
         <v>264.8085946144125</v>
       </c>
       <c r="L39" t="n">
-        <v>86.33075059904719</v>
+        <v>413.8895281620462</v>
       </c>
       <c r="M39" t="n">
         <v>541.7133098798994</v>
@@ -37634,13 +37636,13 @@
         <v>569.5810543320048</v>
       </c>
       <c r="O39" t="n">
-        <v>444.7844470457648</v>
+        <v>302.6775618037474</v>
       </c>
       <c r="P39" t="n">
         <v>344.1715415558448</v>
       </c>
       <c r="Q39" t="n">
-        <v>185.4518923209819</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37792,7 +37794,7 @@
         <v>450.3053724474507</v>
       </c>
       <c r="O41" t="n">
-        <v>372.4398977605626</v>
+        <v>372.4398977605624</v>
       </c>
       <c r="P41" t="n">
         <v>285.3865533491372</v>
@@ -37871,10 +37873,10 @@
         <v>569.5810543320048</v>
       </c>
       <c r="O42" t="n">
-        <v>444.7844470457648</v>
+        <v>117.2256694827656</v>
       </c>
       <c r="P42" t="n">
-        <v>16.61276399284526</v>
+        <v>344.1715415558448</v>
       </c>
       <c r="Q42" t="n">
         <v>185.4518923209819</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>80.17048660913161</v>
       </c>
       <c r="K45" t="n">
         <v>264.8085946144125</v>
@@ -38105,16 +38107,16 @@
         <v>541.7133098798994</v>
       </c>
       <c r="N45" t="n">
-        <v>507.6446556991195</v>
+        <v>569.5810543320048</v>
       </c>
       <c r="O45" t="n">
         <v>444.7844470457648</v>
       </c>
       <c r="P45" t="n">
-        <v>344.1715415558448</v>
+        <v>16.61276399284526</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>185.4518923209819</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
